--- a/Features/Plots/RR_plots/Original.xlsx
+++ b/Features/Plots/RR_plots/Original.xlsx
@@ -520,40 +520,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>18.27527127355797</v>
+        <v>19.41747572815534</v>
       </c>
       <c r="D2" t="n">
-        <v>4.92</v>
+        <v>3.97</v>
       </c>
       <c r="E2" t="n">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8572242024892515</v>
+        <v>0.5454871675850863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5965648190543366</v>
+        <v>0.4615733961137709</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8855490629305316</v>
+        <v>0.5609452587671397</v>
       </c>
       <c r="I2" t="n">
-        <v>0.181706398341317</v>
+        <v>0.1493765035966896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2611000807125076</v>
+        <v>0.1765330639433936</v>
       </c>
       <c r="K2" t="n">
-        <v>3.155</v>
+        <v>3.06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0005</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N2" t="n">
         <v>-1.30266168222685e-17</v>
@@ -573,40 +573,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>20.26646650403453</v>
+        <v>20.042194092827</v>
       </c>
       <c r="D3" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="E3" t="n">
         <v>2.66</v>
       </c>
       <c r="F3" t="n">
-        <v>0.199587810543748</v>
+        <v>0.2624351771813798</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1982711222253425</v>
+        <v>0.2407906081205501</v>
       </c>
       <c r="H3" t="n">
-        <v>0.205698237002368</v>
+        <v>0.2660440034368485</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06697091762162068</v>
+        <v>0.08043286839469851</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06741566128330763</v>
+        <v>0.08766294596424432</v>
       </c>
       <c r="K3" t="n">
-        <v>2.935</v>
+        <v>2.95</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.0001666666666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="N3" t="n">
         <v>4.736951571734001e-18</v>
@@ -732,40 +732,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>10.57993730407523</v>
+        <v>11.75548589341693</v>
       </c>
       <c r="D6" t="n">
-        <v>10.16</v>
+        <v>7.26</v>
       </c>
       <c r="E6" t="n">
         <v>3.26</v>
       </c>
       <c r="F6" t="n">
-        <v>2.474164000223106</v>
+        <v>1.509212450989662</v>
       </c>
       <c r="G6" t="n">
-        <v>2.136103019779503</v>
+        <v>1.308953780696629</v>
       </c>
       <c r="H6" t="n">
-        <v>2.644984134437969</v>
+        <v>1.600750691949804</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3766639337385486</v>
+        <v>0.256456461735233</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4362750000393407</v>
+        <v>0.2956920946296359</v>
       </c>
       <c r="K6" t="n">
-        <v>5.09</v>
+        <v>4.955</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N6" t="n">
         <v>-9.473903143468002e-18</v>
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>10.78167115902965</v>
+        <v>12.12938005390836</v>
       </c>
       <c r="D10" t="n">
         <v>7.510000000000001</v>
@@ -956,25 +956,25 @@
         <v>3.47</v>
       </c>
       <c r="F10" t="n">
-        <v>2.791179986006942</v>
+        <v>2.209434316742636</v>
       </c>
       <c r="G10" t="n">
-        <v>1.924570453002806</v>
+        <v>1.802276338412065</v>
       </c>
       <c r="H10" t="n">
-        <v>3.014362445423734</v>
+        <v>2.322953784670346</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3458347624443498</v>
+        <v>0.3643415778461048</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5015597459131972</v>
+        <v>0.4466511421986461</v>
       </c>
       <c r="K10" t="n">
-        <v>5.640000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0005</v>
       </c>
       <c r="M10" t="n">
         <v>0.001</v>
@@ -997,34 +997,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>11.71112556929083</v>
+        <v>13.01236174365647</v>
       </c>
       <c r="D11" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="F11" t="n">
-        <v>2.30491594206817</v>
+        <v>1.573605202499449</v>
       </c>
       <c r="G11" t="n">
-        <v>1.811208160317306</v>
+        <v>1.651682307359513</v>
       </c>
       <c r="H11" t="n">
-        <v>2.379468352984999</v>
+        <v>1.57069871218017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3535214366266701</v>
+        <v>0.3582047944826529</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4498860004036768</v>
+        <v>0.3412720022770439</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.085</v>
       </c>
       <c r="L11" t="n">
         <v>0.001166666666666667</v>
@@ -1262,40 +1262,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>10.09723261032161</v>
+        <v>12.34106207928198</v>
       </c>
       <c r="D16" t="n">
         <v>9.58</v>
       </c>
       <c r="E16" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="F16" t="n">
-        <v>3.772437872251841</v>
+        <v>3.241595286274953</v>
       </c>
       <c r="G16" t="n">
-        <v>2.083211329760964</v>
+        <v>2.128463380853982</v>
       </c>
       <c r="H16" t="n">
-        <v>4.022273477595901</v>
+        <v>3.413843711842838</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3505778228842309</v>
+        <v>0.4377916452766232</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6348530450685596</v>
+        <v>0.6667454777304506</v>
       </c>
       <c r="K16" t="n">
-        <v>5.28</v>
+        <v>4.12</v>
       </c>
       <c r="L16" t="n">
         <v>0.001333333333333333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N16" t="n">
         <v>5.921189464667502e-18</v>
@@ -1315,40 +1315,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>11.86005139355604</v>
+        <v>13.04605653291164</v>
       </c>
       <c r="D17" t="n">
         <v>7.12</v>
       </c>
       <c r="E17" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="F17" t="n">
-        <v>2.252349390698028</v>
+        <v>1.848748225151278</v>
       </c>
       <c r="G17" t="n">
-        <v>1.618541524541977</v>
+        <v>1.571938004791885</v>
       </c>
       <c r="H17" t="n">
-        <v>2.384135063288151</v>
+        <v>1.944001886144489</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3199330943945398</v>
+        <v>0.341793201279121</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4452163254987208</v>
+        <v>0.4019812310073939</v>
       </c>
       <c r="K17" t="n">
-        <v>4.85</v>
+        <v>4.48</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N17" t="n">
         <v>-4.736951571734001e-18</v>
@@ -1368,40 +1368,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>7.284500202347228</v>
+        <v>8.498583569405099</v>
       </c>
       <c r="D18" t="n">
         <v>12.07</v>
       </c>
       <c r="E18" t="n">
-        <v>5.95</v>
+        <v>3.12</v>
       </c>
       <c r="F18" t="n">
-        <v>2.968659630203503</v>
+        <v>3.741245336337443</v>
       </c>
       <c r="G18" t="n">
-        <v>2.220204194813321</v>
+        <v>2.99565796890544</v>
       </c>
       <c r="H18" t="n">
-        <v>3.139963375582588</v>
+        <v>4.003135854135688</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2695512984394967</v>
+        <v>0.4243141599016205</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3604200279486244</v>
+        <v>0.5299214357418475</v>
       </c>
       <c r="K18" t="n">
-        <v>7.51</v>
+        <v>6.86</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="N18" t="n">
         <v>-7.105427357601002e-18</v>
@@ -1421,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>7.250755287009064</v>
+        <v>8.459214501510575</v>
       </c>
       <c r="D19" t="n">
         <v>11.35</v>
@@ -1433,28 +1433,28 @@
         <v>4.76</v>
       </c>
       <c r="F19" t="n">
-        <v>2.399633305319794</v>
+        <v>3.898020865345216</v>
       </c>
       <c r="G19" t="n">
-        <v>2.878365855828616</v>
+        <v>2.687990043915802</v>
       </c>
       <c r="H19" t="n">
-        <v>2.483388813697927</v>
+        <v>4.188845505227743</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3478387741182618</v>
+        <v>0.3789714059901433</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2899858979238422</v>
+        <v>0.5495699105219842</v>
       </c>
       <c r="K19" t="n">
-        <v>8.629999999999999</v>
+        <v>5.62</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="N19" t="n">
         <v>-7.105427357601002e-18</v>
@@ -1474,40 +1474,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>8.35156094651024</v>
+        <v>9.544641081725988</v>
       </c>
       <c r="D20" t="n">
-        <v>10.76</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>4.19</v>
       </c>
       <c r="F20" t="n">
-        <v>3.566788938714111</v>
+        <v>2.194353142565188</v>
       </c>
       <c r="G20" t="n">
-        <v>2.196306423239231</v>
+        <v>1.528359881890201</v>
       </c>
       <c r="H20" t="n">
-        <v>3.881110236345608</v>
+        <v>2.339328352937472</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3057097825149059</v>
+        <v>0.2431274419391848</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4964709200834912</v>
+        <v>0.3490718858723703</v>
       </c>
       <c r="K20" t="n">
-        <v>6.17</v>
+        <v>6.06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N20" t="n">
         <v>2.368475785867001e-17</v>
@@ -1527,40 +1527,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>9.749303621169917</v>
+        <v>10.90028259991926</v>
       </c>
       <c r="D21" t="n">
-        <v>7.97</v>
+        <v>7.91</v>
       </c>
       <c r="E21" t="n">
-        <v>2.97</v>
+        <v>2.54</v>
       </c>
       <c r="F21" t="n">
-        <v>2.86699901174265</v>
+        <v>2.700094905739426</v>
       </c>
       <c r="G21" t="n">
-        <v>1.783674644685862</v>
+        <v>1.791389901104106</v>
       </c>
       <c r="H21" t="n">
-        <v>3.129462680184358</v>
+        <v>2.88001209074843</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2898264278737474</v>
+        <v>0.325444269477936</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4658540641178865</v>
+        <v>0.4905299586527015</v>
       </c>
       <c r="K21" t="n">
-        <v>6.46</v>
+        <v>5.79</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N21" t="n">
         <v>-2.605323364453701e-17</v>
@@ -1792,40 +1792,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>7.552598453515555</v>
+        <v>8.631541089732062</v>
       </c>
       <c r="D26" t="n">
         <v>11.65</v>
       </c>
       <c r="E26" t="n">
-        <v>4.86</v>
+        <v>2.6</v>
       </c>
       <c r="F26" t="n">
-        <v>3.629731395020849</v>
+        <v>3.44697175586257</v>
       </c>
       <c r="G26" t="n">
-        <v>2.637731709524032</v>
+        <v>3.312152677209017</v>
       </c>
       <c r="H26" t="n">
-        <v>3.862509115415349</v>
+        <v>3.524830965214266</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3320288071690023</v>
+        <v>0.4764830321465947</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4568983953451887</v>
+        <v>0.4958779724312274</v>
       </c>
       <c r="K26" t="n">
-        <v>6.48</v>
+        <v>6.164999999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N26" t="n">
         <v>-4.736951571734001e-18</v>
@@ -2004,40 +2004,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>6.679035250463823</v>
+        <v>7.792207792207791</v>
       </c>
       <c r="D30" t="n">
         <v>11.79</v>
       </c>
       <c r="E30" t="n">
-        <v>5.51</v>
+        <v>3.46</v>
       </c>
       <c r="F30" t="n">
-        <v>3.17474723403297</v>
+        <v>4.250174506221284</v>
       </c>
       <c r="G30" t="n">
-        <v>2.940841149512613</v>
+        <v>3.161244480685837</v>
       </c>
       <c r="H30" t="n">
-        <v>3.54935627966537</v>
+        <v>4.655772402799203</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3273663617268215</v>
+        <v>0.4105512312579008</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3534041447903121</v>
+        <v>0.5519707150936731</v>
       </c>
       <c r="K30" t="n">
-        <v>9.635</v>
+        <v>7.58</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="N30" t="n">
         <v>7.105427357601002e-18</v>
@@ -2057,40 +2057,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>8.389932081502197</v>
+        <v>9.588493807431083</v>
       </c>
       <c r="D31" t="n">
         <v>13.23</v>
       </c>
       <c r="E31" t="n">
-        <v>4.34</v>
+        <v>3.24</v>
       </c>
       <c r="F31" t="n">
-        <v>3.842783279516728</v>
+        <v>4.132386028157859</v>
       </c>
       <c r="G31" t="n">
-        <v>3.389259646645703</v>
+        <v>3.566682131697669</v>
       </c>
       <c r="H31" t="n">
-        <v>4.208179733170468</v>
+        <v>4.462558523025617</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4739276373655597</v>
+        <v>0.5699851588809699</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5373448453179603</v>
+        <v>0.6603892973484394</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>4.935</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M31" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2110,40 +2110,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>10.02087682672234</v>
+        <v>11.27348643006263</v>
       </c>
       <c r="D32" t="n">
-        <v>9.880000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>3.15</v>
       </c>
       <c r="F32" t="n">
-        <v>4.315439060595606</v>
+        <v>3.54549538146646</v>
       </c>
       <c r="G32" t="n">
-        <v>2.652716936059546</v>
+        <v>2.083805279877284</v>
       </c>
       <c r="H32" t="n">
-        <v>4.544056295761269</v>
+        <v>3.789172308791762</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4430424945402163</v>
+        <v>0.3915291757598237</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7207413879909154</v>
+        <v>0.6661682345135312</v>
       </c>
       <c r="K32" t="n">
-        <v>5.51</v>
+        <v>5.03</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N32" t="n">
         <v>-1.1842378929335e-17</v>
@@ -2269,34 +2269,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>8.22722820763957</v>
+        <v>9.402546523016651</v>
       </c>
       <c r="D35" t="n">
-        <v>12.19</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>3.15</v>
       </c>
       <c r="F35" t="n">
-        <v>4.665931489709924</v>
+        <v>3.126543047612079</v>
       </c>
       <c r="G35" t="n">
-        <v>3.012134980849487</v>
+        <v>2.062498051947132</v>
       </c>
       <c r="H35" t="n">
-        <v>5.100099672228639</v>
+        <v>3.364965859870682</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4130253646610463</v>
+        <v>0.3232122314510687</v>
       </c>
       <c r="J35" t="n">
-        <v>0.63979471945092</v>
+        <v>0.4899577743564473</v>
       </c>
       <c r="K35" t="n">
-        <v>7.28</v>
+        <v>6.465</v>
       </c>
       <c r="L35" t="n">
         <v>0.001</v>
@@ -2481,37 +2481,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>16.6358595194085</v>
+        <v>17.7449168207024</v>
       </c>
       <c r="D39" t="n">
         <v>6.49</v>
       </c>
       <c r="E39" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="F39" t="n">
-        <v>1.214913283207607</v>
+        <v>1.03533247477964</v>
       </c>
       <c r="G39" t="n">
-        <v>1.010895406958368</v>
+        <v>0.9323009170863236</v>
       </c>
       <c r="H39" t="n">
-        <v>1.246186270097781</v>
+        <v>1.071668925421599</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2802852329829116</v>
+        <v>0.2757267037593563</v>
       </c>
       <c r="J39" t="n">
-        <v>0.336852111795085</v>
+        <v>0.3061981441122779</v>
       </c>
       <c r="K39" t="n">
-        <v>3.25</v>
+        <v>3.225</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001</v>
       </c>
       <c r="M39" t="n">
         <v>0.001666666666666667</v>
@@ -2693,40 +2693,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>9.787928221859707</v>
+        <v>13.45840130505709</v>
       </c>
       <c r="D43" t="n">
-        <v>14.79</v>
+        <v>8.98</v>
       </c>
       <c r="E43" t="n">
         <v>2.98</v>
       </c>
       <c r="F43" t="n">
-        <v>3.818116588805832</v>
+        <v>2.625107616841641</v>
       </c>
       <c r="G43" t="n">
-        <v>4.222544933364914</v>
+        <v>2.043701632733204</v>
       </c>
       <c r="H43" t="n">
-        <v>4.025415092467691</v>
+        <v>2.70038289466101</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6888327786892193</v>
+        <v>0.4584159453520645</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6228575185653886</v>
+        <v>0.5888291962736144</v>
       </c>
       <c r="K43" t="n">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N43" t="n">
         <v>1.450691418843538e-17</v>
@@ -2746,40 +2746,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>14.86068111455108</v>
+        <v>13.72369624885636</v>
       </c>
       <c r="D44" t="n">
-        <v>7.39</v>
+        <v>11.42</v>
       </c>
       <c r="E44" t="n">
         <v>2.79</v>
       </c>
       <c r="F44" t="n">
-        <v>2.288293188008415</v>
+        <v>2.968985984772878</v>
       </c>
       <c r="G44" t="n">
-        <v>1.449440778862169</v>
+        <v>2.519972662991054</v>
       </c>
       <c r="H44" t="n">
-        <v>2.470234228338912</v>
+        <v>3.001289074899502</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3589946201516209</v>
+        <v>0.5763889897051815</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5667599227265423</v>
+        <v>0.6790910303689106</v>
       </c>
       <c r="K44" t="n">
-        <v>3.535</v>
+        <v>3.58</v>
       </c>
       <c r="L44" t="n">
         <v>0.001</v>
       </c>
       <c r="M44" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N44" t="n">
         <v>-5.921189464667502e-18</v>
@@ -2958,10 +2958,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>9.397024275646045</v>
+        <v>9.364548494983277</v>
       </c>
       <c r="D48" t="n">
         <v>9.68</v>
@@ -2970,28 +2970,28 @@
         <v>3.14</v>
       </c>
       <c r="F48" t="n">
-        <v>2.061814734645186</v>
+        <v>2.277242484526699</v>
       </c>
       <c r="G48" t="n">
-        <v>2.861095943864868</v>
+        <v>2.612468272762461</v>
       </c>
       <c r="H48" t="n">
-        <v>1.803615812749489</v>
+        <v>2.421649575530421</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4480964673241766</v>
+        <v>0.4077430971981544</v>
       </c>
       <c r="J48" t="n">
-        <v>0.3229153852224254</v>
+        <v>0.355422461353108</v>
       </c>
       <c r="K48" t="n">
-        <v>6.359999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0.0005</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0.0005</v>
       </c>
       <c r="N48" t="n">
         <v>1.30266168222685e-17</v>
@@ -3011,10 +3011,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>13.18944844124701</v>
+        <v>13.46297681376216</v>
       </c>
       <c r="D49" t="n">
         <v>10.52</v>
@@ -3023,28 +3023,28 @@
         <v>2.64</v>
       </c>
       <c r="F49" t="n">
-        <v>3.936010670717243</v>
+        <v>3.755865715481222</v>
       </c>
       <c r="G49" t="n">
-        <v>2.604632237170747</v>
+        <v>2.503972601263598</v>
       </c>
       <c r="H49" t="n">
-        <v>4.14692603690439</v>
+        <v>3.938586963966554</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5725610433428902</v>
+        <v>0.5618487512184589</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8652301634270519</v>
+        <v>0.842752217385465</v>
       </c>
       <c r="K49" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="L49" t="n">
         <v>0.001333333333333333</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N49" t="n">
         <v>-1.1842378929335e-18</v>
@@ -3064,34 +3064,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>14.27155599603568</v>
+        <v>15.46085232903865</v>
       </c>
       <c r="D50" t="n">
         <v>7.85</v>
       </c>
       <c r="E50" t="n">
-        <v>3.13</v>
+        <v>2.86</v>
       </c>
       <c r="F50" t="n">
-        <v>1.991694116712065</v>
+        <v>1.707546973487601</v>
       </c>
       <c r="G50" t="n">
-        <v>1.470797299756053</v>
+        <v>1.273508680368673</v>
       </c>
       <c r="H50" t="n">
-        <v>2.081119017172339</v>
+        <v>1.777180265749565</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3498427670381097</v>
+        <v>0.3281588274488156</v>
       </c>
       <c r="J50" t="n">
-        <v>0.473742901893851</v>
+        <v>0.4400021933664779</v>
       </c>
       <c r="K50" t="n">
-        <v>3.455</v>
+        <v>3.43</v>
       </c>
       <c r="L50" t="n">
         <v>0.0008333333333333334</v>
@@ -3117,37 +3117,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>16.0427807486631</v>
+        <v>17.27684080625257</v>
       </c>
       <c r="D51" t="n">
-        <v>7.83</v>
+        <v>4.33</v>
       </c>
       <c r="E51" t="n">
         <v>2.9</v>
       </c>
       <c r="F51" t="n">
-        <v>1.570400691967924</v>
+        <v>0.3352496199733977</v>
       </c>
       <c r="G51" t="n">
-        <v>1.276486062073012</v>
+        <v>0.4112911858530882</v>
       </c>
       <c r="H51" t="n">
-        <v>1.6355008036647</v>
+        <v>0.3296209944769901</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3413064337093616</v>
+        <v>0.1184302057166441</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4198932331465037</v>
+        <v>0.09653423857728442</v>
       </c>
       <c r="K51" t="n">
-        <v>3.37</v>
+        <v>3.375</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0.0001666666666666667</v>
       </c>
       <c r="M51" t="n">
         <v>0.001</v>
@@ -3170,10 +3170,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>14.87697882891474</v>
+        <v>16.02136181575434</v>
       </c>
       <c r="D52" t="n">
         <v>6.82</v>
@@ -3182,25 +3182,25 @@
         <v>2.68</v>
       </c>
       <c r="F52" t="n">
-        <v>1.814800264491936</v>
+        <v>1.294865600391378</v>
       </c>
       <c r="G52" t="n">
-        <v>1.263700812530301</v>
+        <v>1.025781128251501</v>
       </c>
       <c r="H52" t="n">
-        <v>1.860930852117734</v>
+        <v>1.306342516046527</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3133341705682609</v>
+        <v>0.2739068433248335</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4499790852259234</v>
+        <v>0.3457585047774039</v>
       </c>
       <c r="K52" t="n">
-        <v>3.6</v>
+        <v>3.485</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001</v>
+        <v>0.0006666666666666666</v>
       </c>
       <c r="M52" t="n">
         <v>0.001333333333333333</v>
@@ -3223,40 +3223,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
-        <v>12.43781094527363</v>
+        <v>14.92537313432836</v>
       </c>
       <c r="D53" t="n">
         <v>7.09</v>
       </c>
       <c r="E53" t="n">
-        <v>3.25</v>
+        <v>2.97</v>
       </c>
       <c r="F53" t="n">
-        <v>2.217628863849355</v>
+        <v>1.81953790337497</v>
       </c>
       <c r="G53" t="n">
-        <v>1.583176834370971</v>
+        <v>1.314091459387954</v>
       </c>
       <c r="H53" t="n">
-        <v>2.319578505773074</v>
+        <v>1.882070426660249</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3281875693140486</v>
+        <v>0.326888422733322</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4597074759223371</v>
+        <v>0.4526213689987488</v>
       </c>
       <c r="K53" t="n">
-        <v>3.89</v>
+        <v>3.595</v>
       </c>
       <c r="L53" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M53" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N53" t="n">
         <v>1.1842378929335e-17</v>
@@ -3276,40 +3276,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C54" t="n">
-        <v>9.866617942627446</v>
+        <v>13.15549059016992</v>
       </c>
       <c r="D54" t="n">
-        <v>10.45</v>
+        <v>8.91</v>
       </c>
       <c r="E54" t="n">
         <v>2.53</v>
       </c>
       <c r="F54" t="n">
-        <v>4.137952392186261</v>
+        <v>2.219373375937042</v>
       </c>
       <c r="G54" t="n">
-        <v>2.683437368583644</v>
+        <v>2.110887182435313</v>
       </c>
       <c r="H54" t="n">
-        <v>4.411024338437243</v>
+        <v>2.31546146981154</v>
       </c>
       <c r="I54" t="n">
-        <v>0.441274188146406</v>
+        <v>0.4628292744239678</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6804599219747187</v>
+        <v>0.4866157593868903</v>
       </c>
       <c r="K54" t="n">
-        <v>6.27</v>
+        <v>3.315</v>
       </c>
       <c r="L54" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001</v>
       </c>
       <c r="M54" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N54" t="n">
         <v>-5.921189464667502e-18</v>
@@ -3329,10 +3329,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>8.526187576126675</v>
+        <v>10.22146507666099</v>
       </c>
       <c r="D55" t="n">
         <v>13.59</v>
@@ -3341,28 +3341,28 @@
         <v>2.99</v>
       </c>
       <c r="F55" t="n">
-        <v>5.548600424130996</v>
+        <v>4.196885750172382</v>
       </c>
       <c r="G55" t="n">
-        <v>4.40391762822495</v>
+        <v>3.51371242420321</v>
       </c>
       <c r="H55" t="n">
-        <v>6.078147744173385</v>
+        <v>4.486659591022511</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6258104628009471</v>
+        <v>0.5985881472237156</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7884734666852816</v>
+        <v>0.7149720187687192</v>
       </c>
       <c r="K55" t="n">
         <v>4.75</v>
       </c>
       <c r="L55" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M55" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N55" t="n">
         <v>-8.289665250534503e-18</v>
@@ -3382,40 +3382,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>13.83647798742138</v>
+        <v>14.0405616224649</v>
       </c>
       <c r="D56" t="n">
         <v>6.41</v>
       </c>
       <c r="E56" t="n">
-        <v>3.72</v>
+        <v>3.58</v>
       </c>
       <c r="F56" t="n">
-        <v>1.318806278419996</v>
+        <v>1.259025597255852</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8061919464652662</v>
+        <v>0.7990828075570976</v>
       </c>
       <c r="H56" t="n">
-        <v>1.389894080696639</v>
+        <v>1.319748598649138</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1859142853483843</v>
+        <v>0.1869928566826282</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3041272340171899</v>
+        <v>0.2946237747088578</v>
       </c>
       <c r="K56" t="n">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N56" t="n">
         <v>-2.960594732333751e-18</v>
@@ -3488,10 +3488,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>9.730387188323535</v>
+        <v>10.94668558686398</v>
       </c>
       <c r="D58" t="n">
         <v>13.7</v>
@@ -3500,28 +3500,28 @@
         <v>3.43</v>
       </c>
       <c r="F58" t="n">
-        <v>3.590980765354064</v>
+        <v>3.148158191705112</v>
       </c>
       <c r="G58" t="n">
-        <v>3.334349101184732</v>
+        <v>3.286713573025661</v>
       </c>
       <c r="H58" t="n">
-        <v>3.742618131227186</v>
+        <v>3.078337909605487</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5407417962594335</v>
+        <v>0.5996436682998368</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5823605538786237</v>
+        <v>0.5743649650384351</v>
       </c>
       <c r="K58" t="n">
-        <v>5.16</v>
+        <v>4.28</v>
       </c>
       <c r="L58" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001</v>
       </c>
       <c r="M58" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001</v>
       </c>
       <c r="N58" t="n">
         <v>1.8947806286936e-17</v>
@@ -3594,40 +3594,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>11.16486788239672</v>
+        <v>12.2813546706364</v>
       </c>
       <c r="D60" t="n">
         <v>10.25</v>
       </c>
       <c r="E60" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="F60" t="n">
-        <v>3.000814704190995</v>
+        <v>2.924462343747992</v>
       </c>
       <c r="G60" t="n">
-        <v>2.409869521594709</v>
+        <v>2.243369624633282</v>
       </c>
       <c r="H60" t="n">
-        <v>3.152178259200735</v>
+        <v>3.057341619410199</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4484312470403254</v>
+        <v>0.4591936336242296</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5583949951974311</v>
+        <v>0.5986059877414944</v>
       </c>
       <c r="K60" t="n">
-        <v>4.18</v>
+        <v>3.98</v>
       </c>
       <c r="L60" t="n">
         <v>0.0006666666666666666</v>
       </c>
       <c r="M60" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N60" t="n">
         <v>-9.473903143468002e-18</v>
@@ -3647,37 +3647,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>11.48105625717566</v>
+        <v>14.92537313432836</v>
       </c>
       <c r="D61" t="n">
-        <v>11.67</v>
+        <v>8.15</v>
       </c>
       <c r="E61" t="n">
         <v>2.75</v>
       </c>
       <c r="F61" t="n">
-        <v>4.38458283838573</v>
+        <v>2.172032458321008</v>
       </c>
       <c r="G61" t="n">
-        <v>2.790727503716548</v>
+        <v>1.493379835585486</v>
       </c>
       <c r="H61" t="n">
-        <v>4.637539158265345</v>
+        <v>2.254036614743882</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5340083244769513</v>
+        <v>0.371487521289922</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8389940371958915</v>
+        <v>0.5403065816718926</v>
       </c>
       <c r="K61" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="L61" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M61" t="n">
         <v>0.001333333333333333</v>
@@ -3753,40 +3753,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>13.215859030837</v>
+        <v>14.4173007609131</v>
       </c>
       <c r="D63" t="n">
-        <v>8.109999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="E63" t="n">
-        <v>3.08</v>
+        <v>2.45</v>
       </c>
       <c r="F63" t="n">
-        <v>1.549970967470036</v>
+        <v>1.896161193761562</v>
       </c>
       <c r="G63" t="n">
-        <v>1.722985780556531</v>
+        <v>1.376648323305776</v>
       </c>
       <c r="H63" t="n">
-        <v>1.606738933367832</v>
+        <v>1.970580440562443</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3795122864661963</v>
+        <v>0.3307925486517684</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3414032967995673</v>
+        <v>0.4556254370272075</v>
       </c>
       <c r="K63" t="n">
-        <v>3.87</v>
+        <v>3.6</v>
       </c>
       <c r="L63" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M63" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N63" t="n">
         <v>7.105427357601002e-18</v>
@@ -3806,40 +3806,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>8.807339449541285</v>
+        <v>11.00917431192661</v>
       </c>
       <c r="D64" t="n">
-        <v>17.88</v>
+        <v>10.67</v>
       </c>
       <c r="E64" t="n">
         <v>2.64</v>
       </c>
       <c r="F64" t="n">
-        <v>11.85666760378592</v>
+        <v>4.422694314555326</v>
       </c>
       <c r="G64" t="n">
-        <v>7.391009741571174</v>
+        <v>3.433212781055087</v>
       </c>
       <c r="H64" t="n">
-        <v>14.51506458821317</v>
+        <v>5.097884365106765</v>
       </c>
       <c r="I64" t="n">
-        <v>1.084918861148062</v>
+        <v>0.6299472992761627</v>
       </c>
       <c r="J64" t="n">
-        <v>1.740428272115365</v>
+        <v>0.8115035439551056</v>
       </c>
       <c r="K64" t="n">
-        <v>3.365</v>
+        <v>3.69</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0.0005</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0005</v>
+        <v>0.0006666666666666666</v>
       </c>
       <c r="N64" t="n">
         <v>-3.552713678800501e-18</v>
@@ -3859,40 +3859,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>8.953553441522104</v>
+        <v>11.19194180190263</v>
       </c>
       <c r="D65" t="n">
-        <v>17.13</v>
+        <v>13.44</v>
       </c>
       <c r="E65" t="n">
         <v>2.91</v>
       </c>
       <c r="F65" t="n">
-        <v>8.013548349068417</v>
+        <v>3.126238421276705</v>
       </c>
       <c r="G65" t="n">
-        <v>5.50492879803441</v>
+        <v>3.280811044713047</v>
       </c>
       <c r="H65" t="n">
-        <v>8.501750520025972</v>
+        <v>3.074902437476675</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8214779030829188</v>
+        <v>0.6119774379244631</v>
       </c>
       <c r="J65" t="n">
-        <v>1.195828889993422</v>
+        <v>0.5831446411633474</v>
       </c>
       <c r="K65" t="n">
-        <v>3.645</v>
+        <v>3.675</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M65" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N65" t="n">
         <v>9.473903143468002e-18</v>
@@ -3912,40 +3912,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>8.915304606240714</v>
+        <v>10.0297176820208</v>
       </c>
       <c r="D66" t="n">
-        <v>13.37</v>
+        <v>9.51</v>
       </c>
       <c r="E66" t="n">
         <v>2.01</v>
       </c>
       <c r="F66" t="n">
-        <v>2.647734880987898</v>
+        <v>3.134854462331545</v>
       </c>
       <c r="G66" t="n">
-        <v>3.483774635978297</v>
+        <v>2.544601038364255</v>
       </c>
       <c r="H66" t="n">
-        <v>2.494038606643564</v>
+        <v>3.278185201340174</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5176485343206979</v>
+        <v>0.4253605004695077</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3934227163429269</v>
+        <v>0.5240284205234752</v>
       </c>
       <c r="K66" t="n">
-        <v>6.390000000000001</v>
+        <v>4.98</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M66" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3965,10 +3965,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>13.96234398138354</v>
+        <v>15.23164797969114</v>
       </c>
       <c r="D67" t="n">
         <v>8.16</v>
@@ -3977,28 +3977,28 @@
         <v>2.75</v>
       </c>
       <c r="F67" t="n">
-        <v>3.00180279165704</v>
+        <v>2.41085612858322</v>
       </c>
       <c r="G67" t="n">
-        <v>2.045649485660194</v>
+        <v>1.566498459699984</v>
       </c>
       <c r="H67" t="n">
-        <v>3.128421682290005</v>
+        <v>2.525893901176374</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4760343630687992</v>
+        <v>0.3976725516479758</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6985367190232165</v>
+        <v>0.6120218646710101</v>
       </c>
       <c r="K67" t="n">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N67" t="n">
         <v>1.657933050106901e-17</v>
@@ -4018,40 +4018,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C68" t="n">
-        <v>11.90046880634692</v>
+        <v>14.0641904075009</v>
       </c>
       <c r="D68" t="n">
-        <v>15.04</v>
+        <v>10.07</v>
       </c>
       <c r="E68" t="n">
         <v>2.88</v>
       </c>
       <c r="F68" t="n">
-        <v>5.910007614208292</v>
+        <v>2.546047590547619</v>
       </c>
       <c r="G68" t="n">
-        <v>3.84282140667978</v>
+        <v>1.936734960621176</v>
       </c>
       <c r="H68" t="n">
-        <v>6.229684225990556</v>
+        <v>2.659242743657858</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7621896046425817</v>
+        <v>0.453976820917333</v>
       </c>
       <c r="J68" t="n">
-        <v>1.172197687635976</v>
+        <v>0.5968016350003432</v>
       </c>
       <c r="K68" t="n">
-        <v>3.6</v>
+        <v>3.72</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M68" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N68" t="n">
         <v>-2.368475785867001e-18</v>
@@ -4124,10 +4124,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>8.469791078486731</v>
+        <v>7.733619763694951</v>
       </c>
       <c r="D70" t="n">
         <v>14.55</v>
@@ -4136,28 +4136,28 @@
         <v>2.46</v>
       </c>
       <c r="F70" t="n">
-        <v>6.317418380952778</v>
+        <v>5.853810724647665</v>
       </c>
       <c r="G70" t="n">
-        <v>4.798742543625361</v>
+        <v>4.598988656940422</v>
       </c>
       <c r="H70" t="n">
-        <v>6.954252296257305</v>
+        <v>6.476702092886472</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6774057797325468</v>
+        <v>0.5927804928387225</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8917868973676987</v>
+        <v>0.7545191052177441</v>
       </c>
       <c r="K70" t="n">
-        <v>6.92</v>
+        <v>7.525</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="N70" t="n">
         <v>4.736951571734001e-18</v>
@@ -4177,40 +4177,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>4.191895668374475</v>
+        <v>5.589194224499301</v>
       </c>
       <c r="D71" t="n">
-        <v>19.85</v>
+        <v>16.1</v>
       </c>
       <c r="E71" t="n">
-        <v>6.99</v>
+        <v>6.22</v>
       </c>
       <c r="F71" t="n">
-        <v>9.472119614954195</v>
+        <v>8.095515219346245</v>
       </c>
       <c r="G71" t="n">
-        <v>6.613549223626701</v>
+        <v>4.884482231175243</v>
       </c>
       <c r="H71" t="n">
-        <v>11.74504363550855</v>
+        <v>9.190975646433483</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4620551390517024</v>
+        <v>0.4550053312692354</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6617689530708566</v>
+        <v>0.754123448471937</v>
       </c>
       <c r="K71" t="n">
-        <v>16.1</v>
+        <v>10.31</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0.0005</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0.0005</v>
       </c>
       <c r="N71" t="n">
         <v>-1.30266168222685e-17</v>
@@ -4230,10 +4230,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>16.11820013431834</v>
+        <v>17.46138347884487</v>
       </c>
       <c r="D72" t="n">
         <v>5.55</v>
@@ -4242,25 +4242,25 @@
         <v>2.42</v>
       </c>
       <c r="F72" t="n">
-        <v>1.446321352447462</v>
+        <v>0.8620759827300607</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9585417428194103</v>
+        <v>0.9003382555234306</v>
       </c>
       <c r="H72" t="n">
-        <v>1.507065782481731</v>
+        <v>0.8865198386062345</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2574994607976925</v>
+        <v>0.2620191923394806</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3885349502881025</v>
+        <v>0.2508839887058605</v>
       </c>
       <c r="K72" t="n">
-        <v>3.665</v>
+        <v>3.38</v>
       </c>
       <c r="L72" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M72" t="n">
         <v>0.001666666666666667</v>
@@ -4283,34 +4283,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>16.28664495114007</v>
+        <v>17.37242128121607</v>
       </c>
       <c r="D73" t="n">
-        <v>5.93</v>
+        <v>4.09</v>
       </c>
       <c r="E73" t="n">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8674963976870451</v>
+        <v>0.5212357112350099</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7295967575115919</v>
+        <v>0.4295404521113233</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8892758506006662</v>
+        <v>0.531182866906716</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1980447224515722</v>
+        <v>0.1243692948566988</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2354767637586984</v>
+        <v>0.1509187727064813</v>
       </c>
       <c r="K73" t="n">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="L73" t="n">
         <v>0.0006666666666666666</v>
@@ -4442,34 +4442,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" t="n">
-        <v>16.07040367323512</v>
+        <v>17.21828964989477</v>
       </c>
       <c r="D76" t="n">
-        <v>7.24</v>
+        <v>4.43</v>
       </c>
       <c r="E76" t="n">
         <v>2.78</v>
       </c>
       <c r="F76" t="n">
-        <v>1.820088755232304</v>
+        <v>0.7834994757952481</v>
       </c>
       <c r="G76" t="n">
-        <v>1.108697136579391</v>
+        <v>0.4950449715021089</v>
       </c>
       <c r="H76" t="n">
-        <v>1.894256162786969</v>
+        <v>0.8127716790081961</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2969535089365118</v>
+        <v>0.1420637951507869</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4874926836283194</v>
+        <v>0.2248420152463884</v>
       </c>
       <c r="K76" t="n">
-        <v>3.575</v>
+        <v>3.56</v>
       </c>
       <c r="L76" t="n">
         <v>0.001166666666666667</v>
@@ -4495,31 +4495,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C77" t="n">
-        <v>14.9041873669269</v>
+        <v>17.0333569907736</v>
       </c>
       <c r="D77" t="n">
-        <v>7.83</v>
+        <v>4.25</v>
       </c>
       <c r="E77" t="n">
         <v>3.09</v>
       </c>
       <c r="F77" t="n">
-        <v>1.957130945660392</v>
+        <v>0.4561359446480842</v>
       </c>
       <c r="G77" t="n">
-        <v>1.489009553545393</v>
+        <v>0.3184231984848676</v>
       </c>
       <c r="H77" t="n">
-        <v>2.005361723237392</v>
+        <v>0.4681340874253059</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3698746229530785</v>
+        <v>0.09039693356561179</v>
       </c>
       <c r="J77" t="n">
-        <v>0.486157438595555</v>
+        <v>0.1294921063585761</v>
       </c>
       <c r="K77" t="n">
         <v>3.445</v>
@@ -4654,40 +4654,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C80" t="n">
-        <v>8.885597926693817</v>
+        <v>12.217697149204</v>
       </c>
       <c r="D80" t="n">
-        <v>13.34</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>3.23</v>
+        <v>2.77</v>
       </c>
       <c r="F80" t="n">
-        <v>5.397262533650077</v>
+        <v>3.338995357888358</v>
       </c>
       <c r="G80" t="n">
-        <v>3.291780890121855</v>
+        <v>1.925738583221796</v>
       </c>
       <c r="H80" t="n">
-        <v>5.805353030567892</v>
+        <v>3.500772137051419</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4874906908732847</v>
+        <v>0.3921348466390181</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7992984129803892</v>
+        <v>0.6799139010879662</v>
       </c>
       <c r="K80" t="n">
-        <v>6.49</v>
+        <v>4.87</v>
       </c>
       <c r="L80" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="M80" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="N80" t="n">
         <v>2.368475785867001e-17</v>
@@ -4813,40 +4813,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>11.95695496213631</v>
+        <v>13.15265045834994</v>
       </c>
       <c r="D83" t="n">
-        <v>11.96</v>
+        <v>9.18</v>
       </c>
       <c r="E83" t="n">
         <v>2.69</v>
       </c>
       <c r="F83" t="n">
-        <v>3.150978683943557</v>
+        <v>3.024182534173491</v>
       </c>
       <c r="G83" t="n">
-        <v>2.841329109960884</v>
+        <v>2.10971001885007</v>
       </c>
       <c r="H83" t="n">
-        <v>3.34209681354552</v>
+        <v>3.187750861588082</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5662274033401522</v>
+        <v>0.4624713074402306</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6279351701760774</v>
+        <v>0.6629335965705143</v>
       </c>
       <c r="K83" t="n">
-        <v>4.075</v>
+        <v>3.58</v>
       </c>
       <c r="L83" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M83" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N83" t="n">
         <v>-7.105427357601002e-18</v>
@@ -4972,40 +4972,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>12.07243460764587</v>
+        <v>13.41381623071764</v>
       </c>
       <c r="D86" t="n">
-        <v>10.88</v>
+        <v>8.25</v>
       </c>
       <c r="E86" t="n">
         <v>2.48</v>
       </c>
       <c r="F86" t="n">
-        <v>3.628131406109762</v>
+        <v>2.39390661657653</v>
       </c>
       <c r="G86" t="n">
-        <v>2.839057942346369</v>
+        <v>1.91592188428095</v>
       </c>
       <c r="H86" t="n">
-        <v>3.862680185348732</v>
+        <v>2.53550181314162</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5712390226049032</v>
+        <v>0.4283304011359155</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7300063191367731</v>
+        <v>0.5351903904709434</v>
       </c>
       <c r="K86" t="n">
-        <v>3.52</v>
+        <v>3.65</v>
       </c>
       <c r="L86" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M86" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N86" t="n">
         <v>-2.131628207280301e-17</v>
@@ -5237,40 +5237,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>10.10668163952836</v>
+        <v>12.35261089275688</v>
       </c>
       <c r="D91" t="n">
-        <v>12.22</v>
+        <v>7.17</v>
       </c>
       <c r="E91" t="n">
-        <v>3.37</v>
+        <v>2.96</v>
       </c>
       <c r="F91" t="n">
-        <v>3.62444995826953</v>
+        <v>1.838224687028221</v>
       </c>
       <c r="G91" t="n">
-        <v>2.754941015702514</v>
+        <v>1.441409663552253</v>
       </c>
       <c r="H91" t="n">
-        <v>3.874648140707194</v>
+        <v>1.937594442142685</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4640551963564034</v>
+        <v>0.296752878515343</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6105193641105329</v>
+        <v>0.37844790487199</v>
       </c>
       <c r="K91" t="n">
-        <v>5.14</v>
+        <v>4.65</v>
       </c>
       <c r="L91" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M91" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N91" t="n">
         <v>7.105427357601002e-18</v>
@@ -5290,40 +5290,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>11.50968732016114</v>
+        <v>13.10997815003642</v>
       </c>
       <c r="D92" t="n">
         <v>8.140000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>3.54</v>
+        <v>2.73</v>
       </c>
       <c r="F92" t="n">
-        <v>2.638543369192766</v>
+        <v>2.206898275861396</v>
       </c>
       <c r="G92" t="n">
-        <v>1.602207158197022</v>
+        <v>1.577571974058025</v>
       </c>
       <c r="H92" t="n">
-        <v>2.797311209000529</v>
+        <v>2.312803886666965</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3073483902161946</v>
+        <v>0.3446989018335088</v>
       </c>
       <c r="J92" t="n">
-        <v>0.506146819334887</v>
+        <v>0.4822064695982657</v>
       </c>
       <c r="K92" t="n">
-        <v>4.875</v>
+        <v>4.16</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N92" t="n">
         <v>-3.079018521627101e-17</v>
@@ -5502,40 +5502,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>12.47165532879819</v>
+        <v>15.87301587301587</v>
       </c>
       <c r="D96" t="n">
-        <v>7.25</v>
+        <v>5.72</v>
       </c>
       <c r="E96" t="n">
-        <v>3.12</v>
+        <v>2.72</v>
       </c>
       <c r="F96" t="n">
-        <v>2.069009424821453</v>
+        <v>1.146922303048802</v>
       </c>
       <c r="G96" t="n">
-        <v>1.384734303362595</v>
+        <v>0.9264904831592256</v>
       </c>
       <c r="H96" t="n">
-        <v>2.177132670892306</v>
+        <v>1.188923775348842</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2878321492250291</v>
+        <v>0.2451033024230755</v>
       </c>
       <c r="J96" t="n">
-        <v>0.430066206973469</v>
+        <v>0.3034185986901593</v>
       </c>
       <c r="K96" t="n">
-        <v>4.47</v>
+        <v>3.39</v>
       </c>
       <c r="L96" t="n">
         <v>0.0015</v>
       </c>
       <c r="M96" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="N96" t="n">
         <v>-9.473903143468002e-18</v>
@@ -5555,40 +5555,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>7.082431634861302</v>
+        <v>8.262836907338185</v>
       </c>
       <c r="D97" t="n">
-        <v>12.35</v>
+        <v>11.32</v>
       </c>
       <c r="E97" t="n">
         <v>2.98</v>
       </c>
       <c r="F97" t="n">
-        <v>5.989647735885643</v>
+        <v>6.740551411667545</v>
       </c>
       <c r="G97" t="n">
-        <v>4.211875670846264</v>
+        <v>3.863907472026336</v>
       </c>
       <c r="H97" t="n">
-        <v>6.379996081503498</v>
+        <v>7.309680339567981</v>
       </c>
       <c r="I97" t="n">
-        <v>0.4971720248884041</v>
+        <v>0.5321139544399833</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7070211767718642</v>
+        <v>0.9282679496689517</v>
       </c>
       <c r="K97" t="n">
-        <v>10.465</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="N97" t="n">
         <v>-2.131628207280301e-17</v>
@@ -5714,40 +5714,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" t="n">
-        <v>9.165552797403095</v>
+        <v>10.31124689707848</v>
       </c>
       <c r="D100" t="n">
-        <v>14.79</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>3.08</v>
       </c>
       <c r="F100" t="n">
-        <v>6.362471442540459</v>
+        <v>3.216241984055304</v>
       </c>
       <c r="G100" t="n">
-        <v>3.688925269351107</v>
+        <v>1.783223516868009</v>
       </c>
       <c r="H100" t="n">
-        <v>6.864242406087055</v>
+        <v>3.426282606557725</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5635173220318667</v>
+        <v>0.3064542992517106</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9719261321429</v>
+        <v>0.5527244196390632</v>
       </c>
       <c r="K100" t="n">
-        <v>5.51</v>
+        <v>6</v>
       </c>
       <c r="L100" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M100" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N100" t="n">
         <v>2.368475785867001e-18</v>
@@ -5820,40 +5820,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>11.49976042165788</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="D102" t="n">
-        <v>7.79</v>
+        <v>9.49</v>
       </c>
       <c r="E102" t="n">
         <v>2.53</v>
       </c>
       <c r="F102" t="n">
-        <v>3.56663106346271</v>
+        <v>3.128619503870677</v>
       </c>
       <c r="G102" t="n">
-        <v>2.111510968815595</v>
+        <v>2.255381443247562</v>
       </c>
       <c r="H102" t="n">
-        <v>3.765932503251701</v>
+        <v>3.227674773648121</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4046978378180345</v>
+        <v>0.4568912684295245</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6835900457044007</v>
+        <v>0.6337903230677245</v>
       </c>
       <c r="K102" t="n">
-        <v>5.125</v>
+        <v>4.52</v>
       </c>
       <c r="L102" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="M102" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N102" t="n">
         <v>1.4210854715202e-17</v>
@@ -5873,40 +5873,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
-        <v>8.728859792689581</v>
+        <v>10.91107474086197</v>
       </c>
       <c r="D103" t="n">
         <v>13.55</v>
       </c>
       <c r="E103" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="F103" t="n">
-        <v>5.687168514672808</v>
+        <v>5.311230240411978</v>
       </c>
       <c r="G103" t="n">
-        <v>4.272830903343992</v>
+        <v>3.203173599902308</v>
       </c>
       <c r="H103" t="n">
-        <v>6.022546526733244</v>
+        <v>5.631229390146031</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6216156978860145</v>
+        <v>0.5825011092748331</v>
       </c>
       <c r="J103" t="n">
-        <v>0.82737494303296</v>
+        <v>0.96585383531769</v>
       </c>
       <c r="K103" t="n">
         <v>5.27</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -5926,40 +5926,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C104" t="n">
-        <v>11.47666411629686</v>
+        <v>14.14837656448395</v>
       </c>
       <c r="D104" t="n">
         <v>9.470000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="F104" t="n">
-        <v>2.284629802250976</v>
+        <v>2.610620935077835</v>
       </c>
       <c r="G104" t="n">
-        <v>1.968641945888361</v>
+        <v>1.847004157811877</v>
       </c>
       <c r="H104" t="n">
-        <v>2.421288109893391</v>
+        <v>2.717224937990296</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3765573729702297</v>
+        <v>0.4355351723481661</v>
       </c>
       <c r="J104" t="n">
-        <v>0.436998814508603</v>
+        <v>0.6156008009434401</v>
       </c>
       <c r="K104" t="n">
-        <v>5.04</v>
+        <v>3.66</v>
       </c>
       <c r="L104" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0015</v>
+        <v>0.002</v>
       </c>
       <c r="N104" t="n">
         <v>-1.776356839400251e-18</v>
@@ -5979,40 +5979,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>12.34106207928198</v>
+        <v>14.58489154824234</v>
       </c>
       <c r="D105" t="n">
-        <v>9.18</v>
+        <v>6.57</v>
       </c>
       <c r="E105" t="n">
         <v>2.47</v>
       </c>
       <c r="F105" t="n">
-        <v>2.25723946447868</v>
+        <v>1.782063410768539</v>
       </c>
       <c r="G105" t="n">
-        <v>2.041552439599915</v>
+        <v>1.224979853314185</v>
       </c>
       <c r="H105" t="n">
-        <v>2.345200536319987</v>
+        <v>1.860711007799291</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4199154232535352</v>
+        <v>0.2977699718228198</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4642788726489432</v>
+        <v>0.4331866929691663</v>
       </c>
       <c r="K105" t="n">
-        <v>4.13</v>
+        <v>3.69</v>
       </c>
       <c r="L105" t="n">
         <v>0.001</v>
       </c>
       <c r="M105" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N105" t="n">
         <v>-1.06581410364015e-17</v>
@@ -6191,40 +6191,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109" t="n">
-        <v>12.32723197609264</v>
+        <v>13.4478894284647</v>
       </c>
       <c r="D109" t="n">
-        <v>14.78</v>
+        <v>9.65</v>
       </c>
       <c r="E109" t="n">
         <v>2.75</v>
       </c>
       <c r="F109" t="n">
-        <v>4.328297586811702</v>
+        <v>2.558346411969334</v>
       </c>
       <c r="G109" t="n">
-        <v>3.683992646325698</v>
+        <v>2.304642876429836</v>
       </c>
       <c r="H109" t="n">
-        <v>4.402482128173706</v>
+        <v>2.616640107952459</v>
       </c>
       <c r="I109" t="n">
-        <v>0.7568905324912714</v>
+        <v>0.5165430429054545</v>
       </c>
       <c r="J109" t="n">
-        <v>0.8892654735698302</v>
+        <v>0.57340599446455</v>
       </c>
       <c r="K109" t="n">
-        <v>3.42</v>
+        <v>3.475</v>
       </c>
       <c r="L109" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M109" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N109" t="n">
         <v>7.105427357601002e-18</v>
@@ -6509,40 +6509,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
-        <v>14.67544684854186</v>
+        <v>15.80432737535278</v>
       </c>
       <c r="D115" t="n">
-        <v>7.91</v>
+        <v>7.12</v>
       </c>
       <c r="E115" t="n">
         <v>2.41</v>
       </c>
       <c r="F115" t="n">
-        <v>2.130134972249411</v>
+        <v>1.768060649847301</v>
       </c>
       <c r="G115" t="n">
-        <v>1.73199714277019</v>
+        <v>1.306072251169408</v>
       </c>
       <c r="H115" t="n">
-        <v>2.224729299161014</v>
+        <v>1.840128897380387</v>
       </c>
       <c r="I115" t="n">
-        <v>0.4236305335091716</v>
+        <v>0.3440265572224217</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5210113760911071</v>
+        <v>0.4657168221610954</v>
       </c>
       <c r="K115" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="L115" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M115" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.002</v>
       </c>
       <c r="N115" t="n">
         <v>-4.736951571734001e-18</v>
@@ -6880,37 +6880,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C122" t="n">
-        <v>17.36111111111111</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="D122" t="n">
-        <v>5.63</v>
+        <v>5.14</v>
       </c>
       <c r="E122" t="n">
         <v>2.53</v>
       </c>
       <c r="F122" t="n">
-        <v>1.543081332918003</v>
+        <v>0.9885747316212364</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9615894579883276</v>
+        <v>0.7477343556816596</v>
       </c>
       <c r="H122" t="n">
-        <v>1.597568894798085</v>
+        <v>1.018162677618482</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2782376903901411</v>
+        <v>0.2307822085437221</v>
       </c>
       <c r="J122" t="n">
-        <v>0.446493441237848</v>
+        <v>0.305115657907789</v>
       </c>
       <c r="K122" t="n">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="L122" t="n">
-        <v>0.001</v>
+        <v>0.0006666666666666666</v>
       </c>
       <c r="M122" t="n">
         <v>0.001166666666666667</v>
@@ -6986,40 +6986,40 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C124" t="n">
-        <v>15.89704769114307</v>
+        <v>17.03255109765329</v>
       </c>
       <c r="D124" t="n">
         <v>8.4</v>
       </c>
       <c r="E124" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="F124" t="n">
-        <v>1.763019699702321</v>
+        <v>1.644104185089428</v>
       </c>
       <c r="G124" t="n">
-        <v>1.599152247938861</v>
+        <v>1.511581322733943</v>
       </c>
       <c r="H124" t="n">
-        <v>1.782374172924331</v>
+        <v>1.657651092014584</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4236966591813788</v>
+        <v>0.4291014352954039</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4671134707765424</v>
+        <v>0.4667214757066885</v>
       </c>
       <c r="K124" t="n">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="L124" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="M124" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N124" t="n">
         <v>-4.026408835973901e-17</v>
@@ -7092,40 +7092,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126" t="n">
-        <v>14.68649971756731</v>
+        <v>16.94596121257767</v>
       </c>
       <c r="D126" t="n">
-        <v>6.99</v>
+        <v>6.05</v>
       </c>
       <c r="E126" t="n">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="F126" t="n">
-        <v>1.548526181029347</v>
+        <v>1.561192309925791</v>
       </c>
       <c r="G126" t="n">
-        <v>1.479603637153181</v>
+        <v>0.9998461786456859</v>
       </c>
       <c r="H126" t="n">
-        <v>1.601472806985854</v>
+        <v>1.620076819505452</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3621699733193627</v>
+        <v>0.2823892426978966</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3790404886722181</v>
+        <v>0.4409317388229499</v>
       </c>
       <c r="K126" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L126" t="n">
         <v>0.0015</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N126" t="n">
         <v>1.30266168222685e-17</v>
@@ -7145,40 +7145,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="n">
-        <v>11.25703564727955</v>
+        <v>12.3827392120075</v>
       </c>
       <c r="D127" t="n">
-        <v>13.48</v>
+        <v>10.63</v>
       </c>
       <c r="E127" t="n">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="F127" t="n">
-        <v>3.635653693323635</v>
+        <v>2.848906807882631</v>
       </c>
       <c r="G127" t="n">
-        <v>3.095265201346512</v>
+        <v>2.268507719344872</v>
       </c>
       <c r="H127" t="n">
-        <v>3.706103449416621</v>
+        <v>2.931269918198141</v>
       </c>
       <c r="I127" t="n">
-        <v>0.5807251784890267</v>
+        <v>0.4681723248178911</v>
       </c>
       <c r="J127" t="n">
-        <v>0.6821113871151284</v>
+        <v>0.587954500688723</v>
       </c>
       <c r="K127" t="n">
-        <v>4.485</v>
+        <v>4.44</v>
       </c>
       <c r="L127" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N127" t="n">
         <v>-5.921189464667501e-19</v>
@@ -7198,40 +7198,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C128" t="n">
-        <v>14.03130059363195</v>
+        <v>17.26929303831624</v>
       </c>
       <c r="D128" t="n">
-        <v>7.11</v>
+        <v>4.86</v>
       </c>
       <c r="E128" t="n">
-        <v>2.78</v>
+        <v>2.19</v>
       </c>
       <c r="F128" t="n">
-        <v>1.967697469971777</v>
+        <v>0.987137275154778</v>
       </c>
       <c r="G128" t="n">
-        <v>1.374594112587048</v>
+        <v>0.7769681996924542</v>
       </c>
       <c r="H128" t="n">
-        <v>2.053632406397518</v>
+        <v>1.019809972961817</v>
       </c>
       <c r="I128" t="n">
-        <v>0.3214557197990938</v>
+        <v>0.2236281920323667</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4601559113083847</v>
+        <v>0.2841193812282146</v>
       </c>
       <c r="K128" t="n">
-        <v>3.98</v>
+        <v>3.325</v>
       </c>
       <c r="L128" t="n">
         <v>0.001333333333333333</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N128" t="n">
         <v>7.697546304067752e-18</v>
@@ -7304,40 +7304,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C130" t="n">
-        <v>16.09195402298851</v>
+        <v>17.41338654090332</v>
       </c>
       <c r="D130" t="n">
         <v>5.08</v>
       </c>
       <c r="E130" t="n">
-        <v>2.98</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>1.085112542904758</v>
+        <v>0.8674368372778888</v>
       </c>
       <c r="G130" t="n">
-        <v>0.6722162786445485</v>
+        <v>0.6876720996715416</v>
       </c>
       <c r="H130" t="n">
-        <v>1.126856872125475</v>
+        <v>0.8978758000864887</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1802878908242084</v>
+        <v>0.1995783347495858</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2910263525031919</v>
+        <v>0.2517502157889756</v>
       </c>
       <c r="K130" t="n">
-        <v>3.465</v>
+        <v>3.29</v>
       </c>
       <c r="L130" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M130" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.002</v>
       </c>
       <c r="N130" t="n">
         <v>3.079018521627101e-17</v>
@@ -7516,40 +7516,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C134" t="n">
-        <v>17.92047787941012</v>
+        <v>19.04050774687325</v>
       </c>
       <c r="D134" t="n">
-        <v>7.12</v>
+        <v>3.9</v>
       </c>
       <c r="E134" t="n">
         <v>2.2</v>
       </c>
       <c r="F134" t="n">
-        <v>1.645395595796545</v>
+        <v>0.5207386580617959</v>
       </c>
       <c r="G134" t="n">
-        <v>1.124166172473329</v>
+        <v>0.5238544925948089</v>
       </c>
       <c r="H134" t="n">
-        <v>1.702863135176417</v>
+        <v>0.5370315788356087</v>
       </c>
       <c r="I134" t="n">
-        <v>0.3357599171098237</v>
+        <v>0.1662409254080969</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4914379229558469</v>
+        <v>0.1652521408820334</v>
       </c>
       <c r="K134" t="n">
-        <v>3.265</v>
+        <v>3.26</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M134" t="n">
-        <v>0.002</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="N134" t="n">
         <v>4.736951571734001e-18</v>
@@ -7569,40 +7569,40 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C135" t="n">
-        <v>13.63120030291556</v>
+        <v>14.76713366149186</v>
       </c>
       <c r="D135" t="n">
         <v>13.06</v>
       </c>
       <c r="E135" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="F135" t="n">
-        <v>4.130855073270379</v>
+        <v>3.877954787427689</v>
       </c>
       <c r="G135" t="n">
-        <v>2.911980998106502</v>
+        <v>2.83438818976096</v>
       </c>
       <c r="H135" t="n">
-        <v>4.328362276889494</v>
+        <v>4.049044780730838</v>
       </c>
       <c r="I135" t="n">
-        <v>0.6615632710578951</v>
+        <v>0.6975964874459007</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9384752154343915</v>
+        <v>0.9544379446527822</v>
       </c>
       <c r="K135" t="n">
-        <v>3.495</v>
+        <v>3.18</v>
       </c>
       <c r="L135" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -7622,40 +7622,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C136" t="n">
-        <v>14.89117983963345</v>
+        <v>16.03665521191294</v>
       </c>
       <c r="D136" t="n">
         <v>5.89</v>
       </c>
       <c r="E136" t="n">
-        <v>2.96</v>
+        <v>2.51</v>
       </c>
       <c r="F136" t="n">
-        <v>1.13028020124805</v>
+        <v>0.9056192101795069</v>
       </c>
       <c r="G136" t="n">
-        <v>1.016664985286546</v>
+        <v>0.9714292178407675</v>
       </c>
       <c r="H136" t="n">
-        <v>1.161596341508556</v>
+        <v>0.9425708162200565</v>
       </c>
       <c r="I136" t="n">
-        <v>0.2523223522093374</v>
+        <v>0.2596412571548443</v>
       </c>
       <c r="J136" t="n">
-        <v>0.28052009576603</v>
+        <v>0.2420517171155612</v>
       </c>
       <c r="K136" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="L136" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M136" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.002</v>
       </c>
       <c r="N136" t="n">
         <v>-3.552713678800501e-18</v>
@@ -7781,40 +7781,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C139" t="n">
-        <v>17.57919794909357</v>
+        <v>19.77659769273027</v>
       </c>
       <c r="D139" t="n">
-        <v>5.88</v>
+        <v>4.8</v>
       </c>
       <c r="E139" t="n">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="F139" t="n">
-        <v>1.358317586820794</v>
+        <v>0.6136390968447746</v>
       </c>
       <c r="G139" t="n">
-        <v>1.067843426412942</v>
+        <v>0.5378840777023908</v>
       </c>
       <c r="H139" t="n">
-        <v>1.404430743855216</v>
+        <v>0.6122505494437042</v>
       </c>
       <c r="I139" t="n">
-        <v>0.3128638495258575</v>
+        <v>0.1772919501674242</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3979688956076307</v>
+        <v>0.2022615591138243</v>
       </c>
       <c r="K139" t="n">
-        <v>2.93</v>
+        <v>2.925</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.0003333333333333333</v>
       </c>
       <c r="M139" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N139" t="n">
         <v>7.105427357601002e-18</v>
@@ -7834,40 +7834,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C140" t="n">
-        <v>18.49568434032059</v>
+        <v>17.71544565417974</v>
       </c>
       <c r="D140" t="n">
-        <v>4.74</v>
+        <v>5.53</v>
       </c>
       <c r="E140" t="n">
         <v>2.17</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7829203571975158</v>
+        <v>1.150973500998177</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6082269313340211</v>
+        <v>0.8196887112394152</v>
       </c>
       <c r="H140" t="n">
-        <v>0.7898257562745883</v>
+        <v>1.190122842799171</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1874928888205983</v>
+        <v>0.2420191802884415</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2413441298389383</v>
+        <v>0.3398334751055698</v>
       </c>
       <c r="K140" t="n">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="L140" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M140" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N140" t="n">
         <v>-3.552713678800501e-18</v>
@@ -7887,40 +7887,40 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C141" t="n">
-        <v>16.34283639004903</v>
+        <v>17.4323588160523</v>
       </c>
       <c r="D141" t="n">
-        <v>4.88</v>
+        <v>4.8</v>
       </c>
       <c r="E141" t="n">
-        <v>2.87</v>
+        <v>2.24</v>
       </c>
       <c r="F141" t="n">
-        <v>1.109729696818103</v>
+        <v>0.9456496884858226</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7309960588780476</v>
+        <v>0.7434175027084937</v>
       </c>
       <c r="H141" t="n">
-        <v>1.149037820129482</v>
+        <v>0.9725934892019867</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1991091498669096</v>
+        <v>0.2159920109557999</v>
       </c>
       <c r="J141" t="n">
-        <v>0.3022688478712829</v>
+        <v>0.274748411399549</v>
       </c>
       <c r="K141" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L141" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N141" t="n">
         <v>-8.881784197001253e-18</v>
@@ -8152,40 +8152,40 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C146" t="n">
-        <v>11.13792463337665</v>
+        <v>14.47930202338964</v>
       </c>
       <c r="D146" t="n">
-        <v>10.47</v>
+        <v>7.42</v>
       </c>
       <c r="E146" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="F146" t="n">
-        <v>2.377753374744974</v>
+        <v>2.612304219139366</v>
       </c>
       <c r="G146" t="n">
-        <v>2.913508957330395</v>
+        <v>1.748883160103129</v>
       </c>
       <c r="H146" t="n">
-        <v>2.512028286288017</v>
+        <v>2.723446457351532</v>
       </c>
       <c r="I146" t="n">
-        <v>0.5408407197568953</v>
+        <v>0.4220434579792219</v>
       </c>
       <c r="J146" t="n">
-        <v>0.441387298077775</v>
+        <v>0.630405696098232</v>
       </c>
       <c r="K146" t="n">
-        <v>4.52</v>
+        <v>3.49</v>
       </c>
       <c r="L146" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M146" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N146" t="n">
         <v>5.921189464667502e-18</v>
@@ -8205,40 +8205,40 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C147" t="n">
-        <v>9.796806966618286</v>
+        <v>11.97387518142235</v>
       </c>
       <c r="D147" t="n">
         <v>11.83</v>
       </c>
       <c r="E147" t="n">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="F147" t="n">
-        <v>5.623306411711885</v>
+        <v>4.165162661889688</v>
       </c>
       <c r="G147" t="n">
-        <v>3.51303683125836</v>
+        <v>2.952126198337241</v>
       </c>
       <c r="H147" t="n">
-        <v>5.948875043713246</v>
+        <v>4.387144857421511</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5736090617076421</v>
+        <v>0.5891398436449501</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9181741238281379</v>
+        <v>0.8312189637297999</v>
       </c>
       <c r="K147" t="n">
-        <v>5.73</v>
+        <v>4.73</v>
       </c>
       <c r="L147" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M147" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="N147" t="n">
         <v>7.105427357601002e-18</v>
@@ -8258,40 +8258,40 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148" t="n">
-        <v>15.9829515183804</v>
+        <v>17.04848161960576</v>
       </c>
       <c r="D148" t="n">
         <v>10.06</v>
       </c>
       <c r="E148" t="n">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="F148" t="n">
-        <v>2.348647026937607</v>
+        <v>2.1074028249641</v>
       </c>
       <c r="G148" t="n">
-        <v>2.062044062159127</v>
+        <v>2.018073235374111</v>
       </c>
       <c r="H148" t="n">
-        <v>2.373402991116713</v>
+        <v>2.119419956587404</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5492925045708917</v>
+        <v>0.5734180743382309</v>
       </c>
       <c r="J148" t="n">
-        <v>0.6256385260888671</v>
+        <v>0.5988003054417617</v>
       </c>
       <c r="K148" t="n">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="L148" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M148" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.0015</v>
       </c>
       <c r="N148" t="n">
         <v>-1.1842378929335e-18</v>
@@ -8311,34 +8311,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C149" t="n">
-        <v>15.04028648164727</v>
+        <v>16.11459265890779</v>
       </c>
       <c r="D149" t="n">
-        <v>12.32</v>
+        <v>9.19</v>
       </c>
       <c r="E149" t="n">
         <v>2.66</v>
       </c>
       <c r="F149" t="n">
-        <v>3.484097940864817</v>
+        <v>2.280695382678587</v>
       </c>
       <c r="G149" t="n">
-        <v>2.52481366954753</v>
+        <v>1.694422222076501</v>
       </c>
       <c r="H149" t="n">
-        <v>3.622827023337664</v>
+        <v>2.362141885178425</v>
       </c>
       <c r="I149" t="n">
-        <v>0.6328986817128993</v>
+        <v>0.45508206501607</v>
       </c>
       <c r="J149" t="n">
-        <v>0.8733638526787366</v>
+        <v>0.6125412845152874</v>
       </c>
       <c r="K149" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="L149" t="n">
         <v>0.001</v>
@@ -8364,40 +8364,40 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="n">
-        <v>12.23241590214067</v>
+        <v>13.45565749235474</v>
       </c>
       <c r="D150" t="n">
-        <v>10.86</v>
+        <v>7.19</v>
       </c>
       <c r="E150" t="n">
         <v>2.7</v>
       </c>
       <c r="F150" t="n">
-        <v>3.320488585200143</v>
+        <v>2.242554347167533</v>
       </c>
       <c r="G150" t="n">
-        <v>2.552281114785142</v>
+        <v>1.665067293207422</v>
       </c>
       <c r="H150" t="n">
-        <v>3.388074674501729</v>
+        <v>2.315994866622597</v>
       </c>
       <c r="I150" t="n">
-        <v>0.5203427349205182</v>
+        <v>0.3734095866520212</v>
       </c>
       <c r="J150" t="n">
-        <v>0.6769599562079801</v>
+        <v>0.502917386724625</v>
       </c>
       <c r="K150" t="n">
-        <v>4.19</v>
+        <v>3.67</v>
       </c>
       <c r="L150" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M150" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -8417,40 +8417,40 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
-        <v>13.66742596810934</v>
+        <v>14.90991923793746</v>
       </c>
       <c r="D151" t="n">
-        <v>11.26</v>
+        <v>10.75</v>
       </c>
       <c r="E151" t="n">
         <v>2.61</v>
       </c>
       <c r="F151" t="n">
-        <v>4.5756442169382</v>
+        <v>3.100510221941485</v>
       </c>
       <c r="G151" t="n">
-        <v>3.28021645627236</v>
+        <v>2.514570118089348</v>
       </c>
       <c r="H151" t="n">
-        <v>4.747734430464938</v>
+        <v>3.159731288920281</v>
       </c>
       <c r="I151" t="n">
-        <v>0.7472019262579409</v>
+        <v>0.6248672896473841</v>
       </c>
       <c r="J151" t="n">
-        <v>1.042287976523508</v>
+        <v>0.7704726167591183</v>
       </c>
       <c r="K151" t="n">
-        <v>2.83</v>
+        <v>2.975</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0005</v>
+        <v>0.0006666666666666666</v>
       </c>
       <c r="M151" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N151" t="n">
         <v>-7.105427357601002e-18</v>
@@ -8470,40 +8470,40 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="n">
-        <v>13.96825396825397</v>
+        <v>15.23809523809524</v>
       </c>
       <c r="D152" t="n">
-        <v>6.6</v>
+        <v>6.52</v>
       </c>
       <c r="E152" t="n">
         <v>2.63</v>
       </c>
       <c r="F152" t="n">
-        <v>2.474312025594185</v>
+        <v>2.265122914585833</v>
       </c>
       <c r="G152" t="n">
-        <v>1.55362391611589</v>
+        <v>1.342745660611461</v>
       </c>
       <c r="H152" t="n">
-        <v>2.606190067256544</v>
+        <v>2.373916977946327</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3616902238576674</v>
+        <v>0.3410147709489425</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5760303128367414</v>
+        <v>0.5752693116408464</v>
       </c>
       <c r="K152" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="L152" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M152" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N152" t="n">
         <v>9.473903143468002e-18</v>
@@ -8523,10 +8523,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C153" t="n">
-        <v>16.58986175115207</v>
+        <v>18.80184331797235</v>
       </c>
       <c r="D153" t="n">
         <v>7.76</v>
@@ -8535,22 +8535,22 @@
         <v>2.09</v>
       </c>
       <c r="F153" t="n">
-        <v>2.150267425228778</v>
+        <v>1.842917184791546</v>
       </c>
       <c r="G153" t="n">
-        <v>1.581024381607727</v>
+        <v>1.354962556461161</v>
       </c>
       <c r="H153" t="n">
-        <v>2.227311122219982</v>
+        <v>1.899687583963917</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4371495986012148</v>
+        <v>0.4245965614717002</v>
       </c>
       <c r="J153" t="n">
-        <v>0.5945439885425194</v>
+        <v>0.5775040026074892</v>
       </c>
       <c r="K153" t="n">
-        <v>3.13</v>
+        <v>2.8</v>
       </c>
       <c r="L153" t="n">
         <v>0.001333333333333333</v>
@@ -8629,40 +8629,40 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C155" t="n">
-        <v>12.51896813353566</v>
+        <v>14.79514415781487</v>
       </c>
       <c r="D155" t="n">
-        <v>12.79</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E155" t="n">
         <v>2.64</v>
       </c>
       <c r="F155" t="n">
-        <v>4.020099501256157</v>
+        <v>1.806963382768635</v>
       </c>
       <c r="G155" t="n">
-        <v>2.929266430043846</v>
+        <v>1.700752849890382</v>
       </c>
       <c r="H155" t="n">
-        <v>4.234761438905908</v>
+        <v>1.883028669377333</v>
       </c>
       <c r="I155" t="n">
-        <v>0.611189884872578</v>
+        <v>0.4193813931823779</v>
       </c>
       <c r="J155" t="n">
-        <v>0.8387916258311405</v>
+        <v>0.4455713955992461</v>
       </c>
       <c r="K155" t="n">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="L155" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.0008333333333333334</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N155" t="n">
         <v>2.368475785867001e-17</v>
@@ -8682,40 +8682,40 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C156" t="n">
-        <v>9.691313711414214</v>
+        <v>13.99856424982053</v>
       </c>
       <c r="D156" t="n">
-        <v>12.52</v>
+        <v>10.36</v>
       </c>
       <c r="E156" t="n">
-        <v>3.46</v>
+        <v>2.16</v>
       </c>
       <c r="F156" t="n">
-        <v>3.785075956965725</v>
+        <v>3.600496493540856</v>
       </c>
       <c r="G156" t="n">
-        <v>2.524833877923676</v>
+        <v>2.26110790860564</v>
       </c>
       <c r="H156" t="n">
-        <v>4.045989195663846</v>
+        <v>3.749809995186422</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4078159530027474</v>
+        <v>0.5275377389065564</v>
       </c>
       <c r="J156" t="n">
-        <v>0.6113726420081035</v>
+        <v>0.84002969160142</v>
       </c>
       <c r="K156" t="n">
-        <v>5.58</v>
+        <v>3.57</v>
       </c>
       <c r="L156" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M156" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N156" t="n">
         <v>-9.473903143468002e-18</v>
@@ -8735,37 +8735,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>10.68037974683544</v>
+        <v>11.86708860759494</v>
       </c>
       <c r="D157" t="n">
         <v>10.72</v>
       </c>
       <c r="E157" t="n">
-        <v>3.23</v>
+        <v>2.64</v>
       </c>
       <c r="F157" t="n">
-        <v>3.90841719881591</v>
+        <v>3.552654719439472</v>
       </c>
       <c r="G157" t="n">
-        <v>2.380571243303684</v>
+        <v>2.564016813950763</v>
       </c>
       <c r="H157" t="n">
-        <v>4.177996785884013</v>
+        <v>3.767920514023617</v>
       </c>
       <c r="I157" t="n">
-        <v>0.4237567482146588</v>
+        <v>0.5071235787086161</v>
       </c>
       <c r="J157" t="n">
-        <v>0.6957229982069458</v>
+        <v>0.7026611391296423</v>
       </c>
       <c r="K157" t="n">
-        <v>5.4</v>
+        <v>4.550000000000001</v>
       </c>
       <c r="L157" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M157" t="n">
         <v>0.001333333333333333</v>
@@ -8788,40 +8788,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C158" t="n">
-        <v>14.78392721758908</v>
+        <v>17.05837755875664</v>
       </c>
       <c r="D158" t="n">
-        <v>9.74</v>
+        <v>5.23</v>
       </c>
       <c r="E158" t="n">
         <v>2.46</v>
       </c>
       <c r="F158" t="n">
-        <v>2.251545765320646</v>
+        <v>1.35393342313635</v>
       </c>
       <c r="G158" t="n">
-        <v>1.931501342452921</v>
+        <v>0.9033545947243108</v>
       </c>
       <c r="H158" t="n">
-        <v>2.350386654200203</v>
+        <v>1.403493482722294</v>
       </c>
       <c r="I158" t="n">
-        <v>0.4759195877916599</v>
+        <v>0.256829395770748</v>
       </c>
       <c r="J158" t="n">
-        <v>0.5547781453595224</v>
+        <v>0.3849317920213277</v>
       </c>
       <c r="K158" t="n">
-        <v>3.47</v>
+        <v>3.23</v>
       </c>
       <c r="L158" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="M158" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.002</v>
       </c>
       <c r="N158" t="n">
         <v>-7.105427357601002e-18</v>
@@ -8841,40 +8841,40 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="n">
-        <v>12.10898082744702</v>
+        <v>12.72166538164996</v>
       </c>
       <c r="D159" t="n">
         <v>8.57</v>
       </c>
       <c r="E159" t="n">
-        <v>2.84</v>
+        <v>2.33</v>
       </c>
       <c r="F159" t="n">
-        <v>1.992338101606028</v>
+        <v>2.034431124417831</v>
       </c>
       <c r="G159" t="n">
-        <v>1.742260664258429</v>
+        <v>1.832578908136142</v>
       </c>
       <c r="H159" t="n">
-        <v>2.107886645697797</v>
+        <v>2.109682703894382</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3516166829986739</v>
+        <v>0.3885575942462907</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4020863979023266</v>
+        <v>0.4313558667809588</v>
       </c>
       <c r="K159" t="n">
-        <v>4.515000000000001</v>
+        <v>4.32</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M159" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="N159" t="n">
         <v>4.736951571734001e-18</v>
@@ -8947,40 +8947,40 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>10.77441077441078</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="D161" t="n">
-        <v>8.66</v>
+        <v>7.64</v>
       </c>
       <c r="E161" t="n">
-        <v>3.79</v>
+        <v>3.32</v>
       </c>
       <c r="F161" t="n">
-        <v>2.877096750942817</v>
+        <v>1.903647814066457</v>
       </c>
       <c r="G161" t="n">
-        <v>1.828734437488708</v>
+        <v>1.39273112983088</v>
       </c>
       <c r="H161" t="n">
-        <v>3.067642960537183</v>
+        <v>1.989075521082955</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3283922671135728</v>
+        <v>0.2813598242082587</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5166503705396754</v>
+        <v>0.3845753159730217</v>
       </c>
       <c r="K161" t="n">
-        <v>4.640000000000001</v>
+        <v>4.58</v>
       </c>
       <c r="L161" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M161" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N161" t="n">
         <v>9.473903143468002e-18</v>
@@ -9000,40 +9000,40 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C162" t="n">
-        <v>13.42281879194631</v>
+        <v>13.87818041634541</v>
       </c>
       <c r="D162" t="n">
         <v>10.47</v>
       </c>
       <c r="E162" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="F162" t="n">
-        <v>3.568672021915156</v>
+        <v>3.403568982433266</v>
       </c>
       <c r="G162" t="n">
-        <v>2.279118250552174</v>
+        <v>2.231657897101832</v>
       </c>
       <c r="H162" t="n">
-        <v>3.761474297252195</v>
+        <v>3.569121613353781</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5098698547096585</v>
+        <v>0.5161891820590205</v>
       </c>
       <c r="J162" t="n">
-        <v>0.7983606313009297</v>
+        <v>0.7872557399614339</v>
       </c>
       <c r="K162" t="n">
-        <v>3.51</v>
+        <v>3.495</v>
       </c>
       <c r="L162" t="n">
         <v>0.001</v>
       </c>
       <c r="M162" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N162" t="n">
         <v>-4.736951571734001e-18</v>
@@ -9053,40 +9053,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>7.327498473437817</v>
+        <v>9.135896459840122</v>
       </c>
       <c r="D163" t="n">
-        <v>14.17</v>
+        <v>13.06</v>
       </c>
       <c r="E163" t="n">
         <v>2.63</v>
       </c>
       <c r="F163" t="n">
-        <v>5.934243001428236</v>
+        <v>4.480400173453898</v>
       </c>
       <c r="G163" t="n">
-        <v>4.82400421503409</v>
+        <v>3.680363918341306</v>
       </c>
       <c r="H163" t="n">
-        <v>6.323529868673034</v>
+        <v>4.838280883202412</v>
       </c>
       <c r="I163" t="n">
-        <v>0.5891313920253316</v>
+        <v>0.560390394874961</v>
       </c>
       <c r="J163" t="n">
-        <v>0.7247192755662408</v>
+        <v>0.6822078680554089</v>
       </c>
       <c r="K163" t="n">
-        <v>7.595000000000001</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0008333333333333334</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N163" t="n">
         <v>2.368475785867001e-18</v>
@@ -9106,10 +9106,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" t="n">
-        <v>15.96877217885025</v>
+        <v>17.0333569907736</v>
       </c>
       <c r="D164" t="n">
         <v>5.98</v>
@@ -9118,25 +9118,25 @@
         <v>2.57</v>
       </c>
       <c r="F164" t="n">
-        <v>1.626997673191768</v>
+        <v>1.241721922707872</v>
       </c>
       <c r="G164" t="n">
-        <v>1.279522604426391</v>
+        <v>1.142713145690262</v>
       </c>
       <c r="H164" t="n">
-        <v>1.682088739476169</v>
+        <v>1.278094936484245</v>
       </c>
       <c r="I164" t="n">
-        <v>0.3405400827962362</v>
+        <v>0.3244040158098685</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4330192529786466</v>
+        <v>0.3525115465458826</v>
       </c>
       <c r="K164" t="n">
-        <v>3.39</v>
+        <v>3.14</v>
       </c>
       <c r="L164" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M164" t="n">
         <v>0.001833333333333333</v>
@@ -9159,34 +9159,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C165" t="n">
-        <v>13.99491094147582</v>
+        <v>15.26717557251908</v>
       </c>
       <c r="D165" t="n">
-        <v>7.83</v>
+        <v>7.780000000000001</v>
       </c>
       <c r="E165" t="n">
         <v>2.57</v>
       </c>
       <c r="F165" t="n">
-        <v>2.617118644616633</v>
+        <v>1.628739054941248</v>
       </c>
       <c r="G165" t="n">
-        <v>1.928388399203288</v>
+        <v>1.492143059190676</v>
       </c>
       <c r="H165" t="n">
-        <v>2.709296956776795</v>
+        <v>1.64228997550261</v>
       </c>
       <c r="I165" t="n">
-        <v>0.449793731790419</v>
+        <v>0.3796801677329965</v>
       </c>
       <c r="J165" t="n">
-        <v>0.6104390392447615</v>
+        <v>0.414437418560114</v>
       </c>
       <c r="K165" t="n">
-        <v>3.36</v>
+        <v>3.265</v>
       </c>
       <c r="L165" t="n">
         <v>0.001166666666666667</v>
@@ -9318,40 +9318,40 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
-        <v>11.57285639137296</v>
+        <v>12.62493424513414</v>
       </c>
       <c r="D168" t="n">
         <v>9.109999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="F168" t="n">
-        <v>2.313529770718328</v>
+        <v>2.553827786605111</v>
       </c>
       <c r="G168" t="n">
-        <v>1.92133996802421</v>
+        <v>1.927094492187184</v>
       </c>
       <c r="H168" t="n">
-        <v>2.438564240604614</v>
+        <v>2.67839504181142</v>
       </c>
       <c r="I168" t="n">
-        <v>0.3705898588158217</v>
+        <v>0.4054906874670561</v>
       </c>
       <c r="J168" t="n">
-        <v>0.446235796561487</v>
+        <v>0.5373651313214332</v>
       </c>
       <c r="K168" t="n">
-        <v>5.98</v>
+        <v>3.86</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M168" t="n">
-        <v>0.001</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -9371,40 +9371,40 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C169" t="n">
-        <v>12.69474899019042</v>
+        <v>15.00288517022504</v>
       </c>
       <c r="D169" t="n">
-        <v>8.039999999999999</v>
+        <v>7.16</v>
       </c>
       <c r="E169" t="n">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="F169" t="n">
-        <v>2.198624570043735</v>
+        <v>1.906906307784068</v>
       </c>
       <c r="G169" t="n">
-        <v>1.870156532097101</v>
+        <v>1.571307637704244</v>
       </c>
       <c r="H169" t="n">
-        <v>2.309511973460098</v>
+        <v>1.985319415564705</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3956861291222949</v>
+        <v>0.3929024675929058</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4651831173395093</v>
+        <v>0.4768182727677031</v>
       </c>
       <c r="K169" t="n">
-        <v>4.25</v>
+        <v>3.37</v>
       </c>
       <c r="L169" t="n">
-        <v>0.001</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0015</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N169" t="n">
         <v>1.4210854715202e-17</v>
@@ -9424,40 +9424,40 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C170" t="n">
-        <v>13.98873129978628</v>
+        <v>16.32018651641733</v>
       </c>
       <c r="D170" t="n">
         <v>7.55</v>
       </c>
       <c r="E170" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="F170" t="n">
-        <v>1.843534155316408</v>
+        <v>1.286019499792345</v>
       </c>
       <c r="G170" t="n">
-        <v>1.635717570272133</v>
+        <v>1.591770215069505</v>
       </c>
       <c r="H170" t="n">
-        <v>1.871369940590437</v>
+        <v>1.274729735055983</v>
       </c>
       <c r="I170" t="n">
-        <v>0.3813602262146025</v>
+        <v>0.4329664466868675</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4298117323449951</v>
+        <v>0.3498013016726799</v>
       </c>
       <c r="K170" t="n">
-        <v>4.78</v>
+        <v>2.82</v>
       </c>
       <c r="L170" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.001166666666666667</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0015</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="N170" t="n">
         <v>-3.434289889507151e-17</v>
@@ -9530,10 +9530,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" t="n">
-        <v>10.79525008996042</v>
+        <v>11.87477509895646</v>
       </c>
       <c r="D172" t="n">
         <v>14.2</v>
@@ -9542,28 +9542,28 @@
         <v>2.61</v>
       </c>
       <c r="F172" t="n">
-        <v>4.882031680902259</v>
+        <v>4.223476056520268</v>
       </c>
       <c r="G172" t="n">
-        <v>4.087016841984709</v>
+        <v>3.88430712202084</v>
       </c>
       <c r="H172" t="n">
-        <v>5.165189036015795</v>
+        <v>4.439848470887767</v>
       </c>
       <c r="I172" t="n">
-        <v>0.7353394821850862</v>
+        <v>0.7687545581545383</v>
       </c>
       <c r="J172" t="n">
-        <v>0.8783792157074952</v>
+        <v>0.8358804717834284</v>
       </c>
       <c r="K172" t="n">
-        <v>3.375</v>
+        <v>3.06</v>
       </c>
       <c r="L172" t="n">
         <v>0.001</v>
       </c>
       <c r="M172" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="N172" t="n">
         <v>1.06581410364015e-17</v>
@@ -9583,40 +9583,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C173" t="n">
-        <v>14.3646408839779</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="D173" t="n">
-        <v>10.17</v>
+        <v>5.86</v>
       </c>
       <c r="E173" t="n">
         <v>2.28</v>
       </c>
       <c r="F173" t="n">
-        <v>3.387376073993951</v>
+        <v>1.557073191303775</v>
       </c>
       <c r="G173" t="n">
-        <v>2.102943907222225</v>
+        <v>1.16482324273393</v>
       </c>
       <c r="H173" t="n">
-        <v>3.537827616267396</v>
+        <v>1.620336701318904</v>
       </c>
       <c r="I173" t="n">
-        <v>0.5034672337732766</v>
+        <v>0.3003227513494477</v>
       </c>
       <c r="J173" t="n">
-        <v>0.8109740140317009</v>
+        <v>0.4014553347744539</v>
       </c>
       <c r="K173" t="n">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="L173" t="n">
         <v>0.001166666666666667</v>
       </c>
       <c r="M173" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001833333333333333</v>
       </c>
       <c r="N173" t="n">
         <v>9.473903143468002e-18</v>
@@ -9689,40 +9689,40 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C175" t="n">
-        <v>13.00813008130082</v>
+        <v>15.17615176151761</v>
       </c>
       <c r="D175" t="n">
-        <v>11.33</v>
+        <v>6.45</v>
       </c>
       <c r="E175" t="n">
         <v>2.2</v>
       </c>
       <c r="F175" t="n">
-        <v>2.556716644448501</v>
+        <v>1.477877896486403</v>
       </c>
       <c r="G175" t="n">
-        <v>2.426730404174608</v>
+        <v>1.224164438067277</v>
       </c>
       <c r="H175" t="n">
-        <v>2.678814527496682</v>
+        <v>1.534912508990792</v>
       </c>
       <c r="I175" t="n">
-        <v>0.5261204128291833</v>
+        <v>0.3096350882193654</v>
       </c>
       <c r="J175" t="n">
-        <v>0.5543017115335503</v>
+        <v>0.3738083207011679</v>
       </c>
       <c r="K175" t="n">
-        <v>3.76</v>
+        <v>3.465</v>
       </c>
       <c r="L175" t="n">
-        <v>0.001333333333333333</v>
+        <v>0.0015</v>
       </c>
       <c r="M175" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.002</v>
       </c>
       <c r="N175" t="n">
         <v>-1.1842378929335e-18</v>
@@ -9742,40 +9742,40 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C176" t="n">
-        <v>16.24548736462094</v>
+        <v>17.32851985559567</v>
       </c>
       <c r="D176" t="n">
-        <v>10.32</v>
+        <v>6.11</v>
       </c>
       <c r="E176" t="n">
         <v>2.45</v>
       </c>
       <c r="F176" t="n">
-        <v>3.222804900792387</v>
+        <v>1.677883587539176</v>
       </c>
       <c r="G176" t="n">
-        <v>2.045404838260864</v>
+        <v>1.152200792686182</v>
       </c>
       <c r="H176" t="n">
-        <v>3.340556642435311</v>
+        <v>1.730247160984591</v>
       </c>
       <c r="I176" t="n">
-        <v>0.5538099742583568</v>
+        <v>0.3327655718949263</v>
       </c>
       <c r="J176" t="n">
-        <v>0.8726006049076861</v>
+        <v>0.4845873177008449</v>
       </c>
       <c r="K176" t="n">
-        <v>2.91</v>
+        <v>2.975</v>
       </c>
       <c r="L176" t="n">
-        <v>0.001166666666666667</v>
+        <v>0.001333333333333333</v>
       </c>
       <c r="M176" t="n">
-        <v>0.002</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="N176" t="n">
         <v>-2.368475785867001e-18</v>

--- a/Features/Plots/RR_plots/Original.xlsx
+++ b/Features/Plots/RR_plots/Original.xlsx
@@ -535,13 +535,13 @@
         <v>0.5454871675850863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4615733961137709</v>
+        <v>0.4477919685063854</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5609452587671397</v>
+        <v>0.5431329113347856</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1493765035966896</v>
+        <v>0.1449164946622606</v>
       </c>
       <c r="J2" t="n">
         <v>0.1765330639433936</v>
@@ -588,13 +588,13 @@
         <v>0.2624351771813798</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2407906081205501</v>
+        <v>0.234368367865537</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2660440034368485</v>
+        <v>0.2585482976587203</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08043286839469851</v>
+        <v>0.07828760529966952</v>
       </c>
       <c r="J3" t="n">
         <v>0.08766294596424432</v>
@@ -641,13 +641,13 @@
         <v>0.6507248705427334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8063958616673857</v>
+        <v>0.7790524158660098</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6541801344825813</v>
+        <v>0.6303837509560248</v>
       </c>
       <c r="I4" t="n">
-        <v>0.241291400857985</v>
+        <v>0.2331096396965918</v>
       </c>
       <c r="J4" t="n">
         <v>0.1947112120115899</v>
@@ -694,13 +694,13 @@
         <v>0.5978615738935407</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5372891868720887</v>
+        <v>0.5177448154038348</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6133713059594156</v>
+        <v>0.5893080889217788</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1501706651269563</v>
+        <v>0.1447080737802692</v>
       </c>
       <c r="J5" t="n">
         <v>0.167100459862439</v>
@@ -747,13 +747,13 @@
         <v>1.509212450989662</v>
       </c>
       <c r="G6" t="n">
-        <v>1.308953780696629</v>
+        <v>1.241782589666967</v>
       </c>
       <c r="H6" t="n">
-        <v>1.600750691949804</v>
+        <v>1.50920222568902</v>
       </c>
       <c r="I6" t="n">
-        <v>0.256456461735233</v>
+        <v>0.2432959619253463</v>
       </c>
       <c r="J6" t="n">
         <v>0.2956920946296359</v>
@@ -800,13 +800,13 @@
         <v>2.443615263406978</v>
       </c>
       <c r="G7" t="n">
-        <v>1.97220153353781</v>
+        <v>1.870994655256931</v>
       </c>
       <c r="H7" t="n">
-        <v>2.585565702124005</v>
+        <v>2.437694721566988</v>
       </c>
       <c r="I7" t="n">
-        <v>0.373028472392247</v>
+        <v>0.3538858814558219</v>
       </c>
       <c r="J7" t="n">
         <v>0.4621931650098313</v>
@@ -853,13 +853,13 @@
         <v>1.169673614148991</v>
       </c>
       <c r="G8" t="n">
-        <v>1.011645449330701</v>
+        <v>0.9685767766275538</v>
       </c>
       <c r="H8" t="n">
-        <v>1.226360469030211</v>
+        <v>1.169288828149984</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2449010569289571</v>
+        <v>0.2344749106219617</v>
       </c>
       <c r="J8" t="n">
         <v>0.2831568160134738</v>
@@ -906,13 +906,13 @@
         <v>2.263319307060824</v>
       </c>
       <c r="G9" t="n">
-        <v>1.524026035585632</v>
+        <v>1.425595818421196</v>
       </c>
       <c r="H9" t="n">
-        <v>2.439691627664291</v>
+        <v>2.258715546138413</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2558700584403998</v>
+        <v>0.2393445235544505</v>
       </c>
       <c r="J9" t="n">
         <v>0.3799906496639368</v>
@@ -959,13 +959,13 @@
         <v>2.209434316742636</v>
       </c>
       <c r="G10" t="n">
-        <v>1.802276338412065</v>
+        <v>1.699202427284309</v>
       </c>
       <c r="H10" t="n">
-        <v>2.322953784670346</v>
+        <v>2.172924296886571</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3643415778461048</v>
+        <v>0.3435045338175827</v>
       </c>
       <c r="J10" t="n">
         <v>0.4466511421986461</v>
@@ -1012,13 +1012,13 @@
         <v>1.573605202499449</v>
       </c>
       <c r="G11" t="n">
-        <v>1.651682307359513</v>
+        <v>1.566923418677505</v>
       </c>
       <c r="H11" t="n">
-        <v>1.57069871218017</v>
+        <v>1.480868947444767</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3582047944826529</v>
+        <v>0.3398229058073097</v>
       </c>
       <c r="J11" t="n">
         <v>0.3412720022770439</v>
@@ -1065,13 +1065,13 @@
         <v>1.529594717564101</v>
       </c>
       <c r="G12" t="n">
-        <v>1.372286082021199</v>
+        <v>1.308423440949621</v>
       </c>
       <c r="H12" t="n">
-        <v>1.586637254629356</v>
+        <v>1.50521626353159</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2969731832034858</v>
+        <v>0.2831528201937012</v>
       </c>
       <c r="J12" t="n">
         <v>0.331015972717</v>
@@ -1118,13 +1118,13 @@
         <v>2.084844118873159</v>
       </c>
       <c r="G13" t="n">
-        <v>1.341818831950788</v>
+        <v>1.265078926928286</v>
       </c>
       <c r="H13" t="n">
-        <v>2.223761292430976</v>
+        <v>2.080138216561582</v>
       </c>
       <c r="I13" t="n">
-        <v>0.241141563249942</v>
+        <v>0.2273504461332783</v>
       </c>
       <c r="J13" t="n">
         <v>0.3746724654524448</v>
@@ -1171,13 +1171,13 @@
         <v>1.293689813414844</v>
       </c>
       <c r="G14" t="n">
-        <v>1.321819032831482</v>
+        <v>1.253987639492511</v>
       </c>
       <c r="H14" t="n">
-        <v>1.345834107326919</v>
+        <v>1.268864564857344</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2673041522409469</v>
+        <v>0.2535869847305381</v>
       </c>
       <c r="J14" t="n">
         <v>0.2616157357765104</v>
@@ -1224,13 +1224,13 @@
         <v>1.922771437274852</v>
       </c>
       <c r="G15" t="n">
-        <v>1.906657925387888</v>
+        <v>1.7976143312598</v>
       </c>
       <c r="H15" t="n">
-        <v>1.983366546340554</v>
+        <v>1.855269522198864</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3235889369883272</v>
+        <v>0.3050825755485235</v>
       </c>
       <c r="J15" t="n">
         <v>0.3263236457754793</v>
@@ -1277,13 +1277,13 @@
         <v>3.241595286274953</v>
       </c>
       <c r="G16" t="n">
-        <v>2.128463380853982</v>
+        <v>2.029410206223465</v>
       </c>
       <c r="H16" t="n">
-        <v>3.413843711842838</v>
+        <v>3.238656511580071</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4377916452766232</v>
+        <v>0.417417955655537</v>
       </c>
       <c r="J16" t="n">
         <v>0.6667454777304506</v>
@@ -1330,13 +1330,13 @@
         <v>1.848748225151278</v>
       </c>
       <c r="G17" t="n">
-        <v>1.571938004791885</v>
+        <v>1.498784080182421</v>
       </c>
       <c r="H17" t="n">
-        <v>1.944001886144489</v>
+        <v>1.844242120763974</v>
       </c>
       <c r="I17" t="n">
-        <v>0.341793201279121</v>
+        <v>0.3258870306781306</v>
       </c>
       <c r="J17" t="n">
         <v>0.4019812310073939</v>
@@ -1383,13 +1383,13 @@
         <v>3.741245336337443</v>
       </c>
       <c r="G18" t="n">
-        <v>2.99565796890544</v>
+        <v>2.773440359656473</v>
       </c>
       <c r="H18" t="n">
-        <v>4.003135854135688</v>
+        <v>3.654346346779711</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4243141599016205</v>
+        <v>0.3928385778550246</v>
       </c>
       <c r="J18" t="n">
         <v>0.5299214357418475</v>
@@ -1436,13 +1436,13 @@
         <v>3.898020865345216</v>
       </c>
       <c r="G19" t="n">
-        <v>2.687990043915802</v>
+        <v>2.488595210645753</v>
       </c>
       <c r="H19" t="n">
-        <v>4.188845505227743</v>
+        <v>3.823875288528932</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3789714059901433</v>
+        <v>0.3508593449047386</v>
       </c>
       <c r="J19" t="n">
         <v>0.5495699105219842</v>
@@ -1489,13 +1489,13 @@
         <v>2.194353142565188</v>
       </c>
       <c r="G20" t="n">
-        <v>1.528359881890201</v>
+        <v>1.429649760430855</v>
       </c>
       <c r="H20" t="n">
-        <v>2.339328352937472</v>
+        <v>2.165797209117328</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2431274419391848</v>
+        <v>0.2274248972648009</v>
       </c>
       <c r="J20" t="n">
         <v>0.3490718858723703</v>
@@ -1542,13 +1542,13 @@
         <v>2.700094905739426</v>
       </c>
       <c r="G21" t="n">
-        <v>1.791389901104106</v>
+        <v>1.688938595759749</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88001209074843</v>
+        <v>2.694004628336781</v>
       </c>
       <c r="I21" t="n">
-        <v>0.325444269477936</v>
+        <v>0.3068317997948676</v>
       </c>
       <c r="J21" t="n">
         <v>0.4905299586527015</v>
@@ -1595,13 +1595,13 @@
         <v>1.59359656124127</v>
       </c>
       <c r="G22" t="n">
-        <v>1.24779583443945</v>
+        <v>1.176433194757949</v>
       </c>
       <c r="H22" t="n">
-        <v>1.684195441661771</v>
+        <v>1.575420578766191</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2693730513301764</v>
+        <v>0.2539673483526396</v>
       </c>
       <c r="J22" t="n">
         <v>0.3440242036740568</v>
@@ -1648,13 +1648,13 @@
         <v>2.548358949075529</v>
       </c>
       <c r="G23" t="n">
-        <v>2.390312790848771</v>
+        <v>2.212999626511215</v>
       </c>
       <c r="H23" t="n">
-        <v>2.689354321517837</v>
+        <v>2.455033378365535</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3501923301787651</v>
+        <v>0.3242150980656866</v>
       </c>
       <c r="J23" t="n">
         <v>0.3733468531504543</v>
@@ -1701,13 +1701,13 @@
         <v>4.610126534778266</v>
       </c>
       <c r="G24" t="n">
-        <v>2.997259065339849</v>
+        <v>2.774922686917123</v>
       </c>
       <c r="H24" t="n">
-        <v>5.038710152410039</v>
+        <v>4.599692018675453</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4423532249078419</v>
+        <v>0.4095395068188881</v>
       </c>
       <c r="J24" t="n">
         <v>0.6803897479116142</v>
@@ -1754,13 +1754,13 @@
         <v>3.022559621689317</v>
       </c>
       <c r="G25" t="n">
-        <v>2.303162422161568</v>
+        <v>2.132314063478014</v>
       </c>
       <c r="H25" t="n">
-        <v>3.307323187513834</v>
+        <v>3.019159191268692</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3080270721270726</v>
+        <v>0.2851776546493333</v>
       </c>
       <c r="J25" t="n">
         <v>0.4042399188350252</v>
@@ -1807,13 +1807,13 @@
         <v>3.44697175586257</v>
       </c>
       <c r="G26" t="n">
-        <v>3.312152677209017</v>
+        <v>3.098235132700551</v>
       </c>
       <c r="H26" t="n">
-        <v>3.524830965214266</v>
+        <v>3.263359355896051</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4764830321465947</v>
+        <v>0.4457090642259379</v>
       </c>
       <c r="J26" t="n">
         <v>0.4958779724312274</v>
@@ -1860,13 +1860,13 @@
         <v>2.523368559859794</v>
       </c>
       <c r="G27" t="n">
-        <v>1.708808551788839</v>
+        <v>1.621118132647958</v>
       </c>
       <c r="H27" t="n">
-        <v>2.673237737276654</v>
+        <v>2.520352709002805</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3144660566413026</v>
+        <v>0.2983286957394107</v>
       </c>
       <c r="J27" t="n">
         <v>0.4643666838166717</v>
@@ -1913,13 +1913,13 @@
         <v>3.387052553474776</v>
       </c>
       <c r="G28" t="n">
-        <v>3.272381395864485</v>
+        <v>2.926906899783456</v>
       </c>
       <c r="H28" t="n">
-        <v>3.629181496334033</v>
+        <v>3.142963370769694</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3789232741853271</v>
+        <v>0.3389192797340731</v>
       </c>
       <c r="J28" t="n">
         <v>0.3922015462569217</v>
@@ -1966,13 +1966,13 @@
         <v>3.603949222727756</v>
       </c>
       <c r="G29" t="n">
-        <v>2.544506064270846</v>
+        <v>2.398983323754944</v>
       </c>
       <c r="H29" t="n">
-        <v>3.852760605814263</v>
+        <v>3.603927545054145</v>
       </c>
       <c r="I29" t="n">
-        <v>0.452848617331177</v>
+        <v>0.4269497708877695</v>
       </c>
       <c r="J29" t="n">
         <v>0.6413989124886259</v>
@@ -2019,13 +2019,13 @@
         <v>4.250174506221284</v>
       </c>
       <c r="G30" t="n">
-        <v>3.161244480685837</v>
+        <v>2.926743680513989</v>
       </c>
       <c r="H30" t="n">
-        <v>4.655772402799203</v>
+        <v>4.25011927937192</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4105512312579008</v>
+        <v>0.3800965818849336</v>
       </c>
       <c r="J30" t="n">
         <v>0.5519707150936731</v>
@@ -2072,13 +2072,13 @@
         <v>4.132386028157859</v>
       </c>
       <c r="G31" t="n">
-        <v>3.566682131697669</v>
+        <v>3.336325636085303</v>
       </c>
       <c r="H31" t="n">
-        <v>4.462558523025617</v>
+        <v>4.131526377028427</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5699851588809699</v>
+        <v>0.533172295019625</v>
       </c>
       <c r="J31" t="n">
         <v>0.6603892973484394</v>
@@ -2125,13 +2125,13 @@
         <v>3.54549538146646</v>
       </c>
       <c r="G32" t="n">
-        <v>2.083805279877284</v>
+        <v>1.964630458764745</v>
       </c>
       <c r="H32" t="n">
-        <v>3.789172308791762</v>
+        <v>3.544446139737492</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3915291757598237</v>
+        <v>0.3691372469495346</v>
       </c>
       <c r="J32" t="n">
         <v>0.6661682345135312</v>
@@ -2178,13 +2178,13 @@
         <v>0.2588159853751586</v>
       </c>
       <c r="G33" t="n">
-        <v>0.296346001121919</v>
+        <v>0.2862974366322937</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2658058450311943</v>
+        <v>0.2561369212920691</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08330565998554695</v>
+        <v>0.08048091359603461</v>
       </c>
       <c r="J33" t="n">
         <v>0.0727556180777245</v>
@@ -2231,13 +2231,13 @@
         <v>2.705623772810994</v>
       </c>
       <c r="G34" t="n">
-        <v>2.105659041725417</v>
+        <v>1.969663676874811</v>
       </c>
       <c r="H34" t="n">
-        <v>2.921689009231931</v>
+        <v>2.704958410031474</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3117185850074636</v>
+        <v>0.2915860365469743</v>
       </c>
       <c r="J34" t="n">
         <v>0.4005364578550695</v>
@@ -2284,13 +2284,13 @@
         <v>3.126543047612079</v>
       </c>
       <c r="G35" t="n">
-        <v>2.062498051947132</v>
+        <v>1.929290267818713</v>
       </c>
       <c r="H35" t="n">
-        <v>3.364965859870682</v>
+        <v>3.115353028116704</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3232122314510687</v>
+        <v>0.302337358326145</v>
       </c>
       <c r="J35" t="n">
         <v>0.4899577743564473</v>
@@ -2337,13 +2337,13 @@
         <v>2.398707985562227</v>
       </c>
       <c r="G36" t="n">
-        <v>2.032378386216972</v>
+        <v>1.881616760302974</v>
       </c>
       <c r="H36" t="n">
-        <v>2.616577917815557</v>
+        <v>2.388597915095799</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3054239738840448</v>
+        <v>0.2827676539742555</v>
       </c>
       <c r="J36" t="n">
         <v>0.3604756526177671</v>
@@ -2390,13 +2390,13 @@
         <v>0.8413301157312529</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6348490634263654</v>
+        <v>0.6078217026581251</v>
       </c>
       <c r="H37" t="n">
-        <v>0.869439736005581</v>
+        <v>0.8289782618848854</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1395783943040745</v>
+        <v>0.1336361383638237</v>
       </c>
       <c r="J37" t="n">
         <v>0.1849754743271351</v>
@@ -2443,13 +2443,13 @@
         <v>1.528568684169024</v>
       </c>
       <c r="G38" t="n">
-        <v>1.214570797533936</v>
+        <v>1.152243029920338</v>
       </c>
       <c r="H38" t="n">
-        <v>1.570696059430694</v>
+        <v>1.480866446408576</v>
       </c>
       <c r="I38" t="n">
-        <v>0.240795162080479</v>
+        <v>0.2284383485171169</v>
       </c>
       <c r="J38" t="n">
         <v>0.3030469239034544</v>
@@ -2496,13 +2496,13 @@
         <v>1.03533247477964</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9323009170863236</v>
+        <v>0.9026964813823083</v>
       </c>
       <c r="H39" t="n">
-        <v>1.071668925421599</v>
+        <v>1.035330543031226</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2757267037593563</v>
+        <v>0.2669712329411633</v>
       </c>
       <c r="J39" t="n">
         <v>0.3061981441122779</v>
@@ -2549,13 +2549,13 @@
         <v>0.9752582075679094</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8539555023536063</v>
+        <v>0.8249993939391713</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9835258394791043</v>
+        <v>0.9477492133621486</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2590884412480601</v>
+        <v>0.2503032141805738</v>
       </c>
       <c r="J40" t="n">
         <v>0.2958914464708463</v>
@@ -2602,13 +2602,13 @@
         <v>5.580390891326521</v>
       </c>
       <c r="G41" t="n">
-        <v>3.564912341138278</v>
+        <v>3.361031587672649</v>
       </c>
       <c r="H41" t="n">
-        <v>5.963197698023627</v>
+        <v>5.578060678900867</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6196255517621572</v>
+        <v>0.5841885725966366</v>
       </c>
       <c r="J41" t="n">
         <v>0.9699404793730916</v>
@@ -2655,13 +2655,13 @@
         <v>0.8366241689074014</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5349376910756368</v>
+        <v>0.5179511921986473</v>
       </c>
       <c r="H42" t="n">
-        <v>0.865867030372282</v>
+        <v>0.8365070232819328</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1586763636857655</v>
+        <v>0.1536377284979302</v>
       </c>
       <c r="J42" t="n">
         <v>0.2481643808401636</v>
@@ -2708,13 +2708,13 @@
         <v>2.625107616841641</v>
       </c>
       <c r="G43" t="n">
-        <v>2.043701632733204</v>
+        <v>1.948593050391245</v>
       </c>
       <c r="H43" t="n">
-        <v>2.70038289466101</v>
+        <v>2.561808150506201</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4584159453520645</v>
+        <v>0.4370824542068453</v>
       </c>
       <c r="J43" t="n">
         <v>0.5888291962736144</v>
@@ -2761,13 +2761,13 @@
         <v>2.968985984772878</v>
       </c>
       <c r="G44" t="n">
-        <v>2.519972662991054</v>
+        <v>2.390655976923489</v>
       </c>
       <c r="H44" t="n">
-        <v>3.001289074899502</v>
+        <v>2.829642476216717</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5763889897051815</v>
+        <v>0.5468106077135151</v>
       </c>
       <c r="J44" t="n">
         <v>0.6790910303689106</v>
@@ -2814,13 +2814,13 @@
         <v>2.176403761560187</v>
       </c>
       <c r="G45" t="n">
-        <v>1.922036846947956</v>
+        <v>1.846633271082762</v>
       </c>
       <c r="H45" t="n">
-        <v>2.272216912394082</v>
+        <v>2.175482066628502</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4518350634778197</v>
+        <v>0.4341090872346457</v>
       </c>
       <c r="J45" t="n">
         <v>0.5116319873468794</v>
@@ -2867,13 +2867,13 @@
         <v>0.8281424998150982</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4892017307137551</v>
+        <v>0.4736675389975547</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8563683008301199</v>
+        <v>0.8273303787215575</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1452175824011147</v>
+        <v>0.1406063195540051</v>
       </c>
       <c r="J46" t="n">
         <v>0.2458307977187675</v>
@@ -2920,13 +2920,13 @@
         <v>2.081037765591528</v>
       </c>
       <c r="G47" t="n">
-        <v>1.57483693239534</v>
+        <v>1.507791569371134</v>
       </c>
       <c r="H47" t="n">
-        <v>2.17296278677921</v>
+        <v>2.071838725016824</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3630747970940264</v>
+        <v>0.347617652880953</v>
       </c>
       <c r="J47" t="n">
         <v>0.4797781592141852</v>
@@ -2973,13 +2973,13 @@
         <v>2.277242484526699</v>
       </c>
       <c r="G48" t="n">
-        <v>2.612468272762461</v>
+        <v>2.418675636941567</v>
       </c>
       <c r="H48" t="n">
-        <v>2.421649575530421</v>
+        <v>2.21065349815137</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4077430971981544</v>
+        <v>0.3774967549295645</v>
       </c>
       <c r="J48" t="n">
         <v>0.355422461353108</v>
@@ -3026,13 +3026,13 @@
         <v>3.755865715481222</v>
       </c>
       <c r="G49" t="n">
-        <v>2.503972601263598</v>
+        <v>2.397371245528921</v>
       </c>
       <c r="H49" t="n">
-        <v>3.938586963966554</v>
+        <v>3.755295324632487</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5618487512184589</v>
+        <v>0.5379292248755994</v>
       </c>
       <c r="J49" t="n">
         <v>0.842752217385465</v>
@@ -3079,13 +3079,13 @@
         <v>1.707546973487601</v>
       </c>
       <c r="G50" t="n">
-        <v>1.273508680368673</v>
+        <v>1.223547563053131</v>
       </c>
       <c r="H50" t="n">
-        <v>1.777180265749565</v>
+        <v>1.701520561798247</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3281588274488156</v>
+        <v>0.315284803165326</v>
       </c>
       <c r="J50" t="n">
         <v>0.4400021933664779</v>
@@ -3132,13 +3132,13 @@
         <v>0.3352496199733977</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4112911858530882</v>
+        <v>0.3963301036010362</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3296209944769901</v>
+        <v>0.3166896078059834</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1184302057166441</v>
+        <v>0.1141222017773449</v>
       </c>
       <c r="J51" t="n">
         <v>0.09653423857728442</v>
@@ -3185,13 +3185,13 @@
         <v>1.294865600391378</v>
       </c>
       <c r="G52" t="n">
-        <v>1.025781128251501</v>
+        <v>0.9884674284683624</v>
       </c>
       <c r="H52" t="n">
-        <v>1.306342516046527</v>
+        <v>1.255093291989736</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2739068433248335</v>
+        <v>0.2639432385763317</v>
       </c>
       <c r="J52" t="n">
         <v>0.3457585047774039</v>
@@ -3238,13 +3238,13 @@
         <v>1.81953790337497</v>
       </c>
       <c r="G53" t="n">
-        <v>1.314091459387954</v>
+        <v>1.258146785289114</v>
       </c>
       <c r="H53" t="n">
-        <v>1.882070426660249</v>
+        <v>1.794483742146037</v>
       </c>
       <c r="I53" t="n">
-        <v>0.326888422733322</v>
+        <v>0.3129718371365957</v>
       </c>
       <c r="J53" t="n">
         <v>0.4526213689987488</v>
@@ -3291,13 +3291,13 @@
         <v>2.219373375937042</v>
       </c>
       <c r="G54" t="n">
-        <v>2.110887182435313</v>
+        <v>2.021020609878968</v>
       </c>
       <c r="H54" t="n">
-        <v>2.31546146981154</v>
+        <v>2.207705888304916</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4628292744239678</v>
+        <v>0.443125293596704</v>
       </c>
       <c r="J54" t="n">
         <v>0.4866157593868903</v>
@@ -3344,13 +3344,13 @@
         <v>4.196885750172382</v>
       </c>
       <c r="G55" t="n">
-        <v>3.51371242420321</v>
+        <v>3.312759843058017</v>
       </c>
       <c r="H55" t="n">
-        <v>4.486659591022511</v>
+        <v>4.196885750172382</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5985881472237156</v>
+        <v>0.5643543173863743</v>
       </c>
       <c r="J55" t="n">
         <v>0.7149720187687192</v>
@@ -3397,13 +3397,13 @@
         <v>1.259025597255852</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7990828075570976</v>
+        <v>0.7650635412972064</v>
       </c>
       <c r="H56" t="n">
-        <v>1.319748598649138</v>
+        <v>1.258330916021249</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1869928566826282</v>
+        <v>0.1790320299447441</v>
       </c>
       <c r="J56" t="n">
         <v>0.2946237747088578</v>
@@ -3450,13 +3450,13 @@
         <v>1.690847017433463</v>
       </c>
       <c r="G57" t="n">
-        <v>1.009009039812946</v>
+        <v>0.9660526066881082</v>
       </c>
       <c r="H57" t="n">
-        <v>1.773371211716671</v>
+        <v>1.690843107216971</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2394326374877467</v>
+        <v>0.229239297612365</v>
       </c>
       <c r="J57" t="n">
         <v>0.4012292705003273</v>
@@ -3503,13 +3503,13 @@
         <v>3.148158191705112</v>
       </c>
       <c r="G58" t="n">
-        <v>3.286713573025661</v>
+        <v>3.098743273739082</v>
       </c>
       <c r="H58" t="n">
-        <v>3.078337909605487</v>
+        <v>2.879521444615406</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5996436682998368</v>
+        <v>0.5653494722005218</v>
       </c>
       <c r="J58" t="n">
         <v>0.5743649650384351</v>
@@ -3556,13 +3556,13 @@
         <v>0.3479942528261062</v>
       </c>
       <c r="G59" t="n">
-        <v>0.362935336972758</v>
+        <v>0.35209899520184</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3582829421932708</v>
+        <v>0.3469059670861832</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1156928694644082</v>
+        <v>0.1122385696311884</v>
       </c>
       <c r="J59" t="n">
         <v>0.1109301012196476</v>
@@ -3609,13 +3609,13 @@
         <v>2.924462343747992</v>
       </c>
       <c r="G60" t="n">
-        <v>2.243369624633282</v>
+        <v>2.138969010937762</v>
       </c>
       <c r="H60" t="n">
-        <v>3.057341619410199</v>
+        <v>2.900448930769166</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4591936336242296</v>
+        <v>0.4378239508804499</v>
       </c>
       <c r="J60" t="n">
         <v>0.5986059877414944</v>
@@ -3662,13 +3662,13 @@
         <v>2.172032458321008</v>
       </c>
       <c r="G61" t="n">
-        <v>1.493379835585486</v>
+        <v>1.434792936012291</v>
       </c>
       <c r="H61" t="n">
-        <v>2.254036614743882</v>
+        <v>2.158075756831122</v>
       </c>
       <c r="I61" t="n">
-        <v>0.371487521289922</v>
+        <v>0.3569136656746992</v>
       </c>
       <c r="J61" t="n">
         <v>0.5403065816718926</v>
@@ -3715,13 +3715,13 @@
         <v>1.556831718587465</v>
       </c>
       <c r="G62" t="n">
-        <v>1.353026521998282</v>
+        <v>1.299945834101419</v>
       </c>
       <c r="H62" t="n">
-        <v>1.621016095483996</v>
+        <v>1.552004751925715</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3364450035573388</v>
+        <v>0.3232459036594958</v>
       </c>
       <c r="J62" t="n">
         <v>0.3871234189295533</v>
@@ -3768,13 +3768,13 @@
         <v>1.896161193761562</v>
       </c>
       <c r="G63" t="n">
-        <v>1.376648323305776</v>
+        <v>1.318040422580262</v>
       </c>
       <c r="H63" t="n">
-        <v>1.970580440562443</v>
+        <v>1.878874729175387</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3307925486517684</v>
+        <v>0.3167097531230105</v>
       </c>
       <c r="J63" t="n">
         <v>0.4556254370272075</v>
@@ -3821,13 +3821,13 @@
         <v>4.422694314555326</v>
       </c>
       <c r="G64" t="n">
-        <v>3.433212781055087</v>
+        <v>3.07075886386411</v>
       </c>
       <c r="H64" t="n">
-        <v>5.097884365106765</v>
+        <v>4.414897365737962</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6299472992761627</v>
+        <v>0.5634419933695615</v>
       </c>
       <c r="J64" t="n">
         <v>0.8115035439551056</v>
@@ -3874,13 +3874,13 @@
         <v>3.126238421276705</v>
       </c>
       <c r="G65" t="n">
-        <v>3.280811044713047</v>
+        <v>3.112450642178925</v>
       </c>
       <c r="H65" t="n">
-        <v>3.074902437476675</v>
+        <v>2.899045820035735</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6119774379244631</v>
+        <v>0.5805727741426833</v>
       </c>
       <c r="J65" t="n">
         <v>0.5831446411633474</v>
@@ -3927,13 +3927,13 @@
         <v>3.134854462331545</v>
       </c>
       <c r="G66" t="n">
-        <v>2.544601038364255</v>
+        <v>2.399072866188927</v>
       </c>
       <c r="H66" t="n">
-        <v>3.278185201340174</v>
+        <v>3.066461468451871</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4253605004695077</v>
+        <v>0.4010337257745233</v>
       </c>
       <c r="J66" t="n">
         <v>0.5240284205234752</v>
@@ -3980,13 +3980,13 @@
         <v>2.41085612858322</v>
       </c>
       <c r="G67" t="n">
-        <v>1.566498459699984</v>
+        <v>1.499808089575315</v>
       </c>
       <c r="H67" t="n">
-        <v>2.525893901176374</v>
+        <v>2.408345339175276</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3976725516479758</v>
+        <v>0.3807424809584044</v>
       </c>
       <c r="J67" t="n">
         <v>0.6120218646710101</v>
@@ -4033,13 +4033,13 @@
         <v>2.546047590547619</v>
       </c>
       <c r="G68" t="n">
-        <v>1.936734960621176</v>
+        <v>1.860754761924222</v>
       </c>
       <c r="H68" t="n">
-        <v>2.659242743657858</v>
+        <v>2.546031088882372</v>
       </c>
       <c r="I68" t="n">
-        <v>0.453976820917333</v>
+        <v>0.4361668212227712</v>
       </c>
       <c r="J68" t="n">
         <v>0.5968016350003432</v>
@@ -4086,13 +4086,13 @@
         <v>1.078049937000446</v>
       </c>
       <c r="G69" t="n">
-        <v>1.030044808584708</v>
+        <v>0.9896350412111018</v>
       </c>
       <c r="H69" t="n">
-        <v>1.078167286171166</v>
+        <v>1.03226658647636</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2603652053587635</v>
+        <v>0.250150797895087</v>
       </c>
       <c r="J69" t="n">
         <v>0.2724994979779468</v>
@@ -4139,13 +4139,13 @@
         <v>5.853810724647665</v>
       </c>
       <c r="G70" t="n">
-        <v>4.598988656940422</v>
+        <v>4.198283048527762</v>
       </c>
       <c r="H70" t="n">
-        <v>6.476702092886472</v>
+        <v>5.792938459883723</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5927804928387225</v>
+        <v>0.5411320792946632</v>
       </c>
       <c r="J70" t="n">
         <v>0.7545191052177441</v>
@@ -4192,13 +4192,13 @@
         <v>8.095515219346245</v>
       </c>
       <c r="G71" t="n">
-        <v>4.884482231175243</v>
+        <v>4.230085696531455</v>
       </c>
       <c r="H71" t="n">
-        <v>9.190975646433483</v>
+        <v>7.504400190702935</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4550053312692354</v>
+        <v>0.3940461757365119</v>
       </c>
       <c r="J71" t="n">
         <v>0.754123448471937</v>
@@ -4245,13 +4245,13 @@
         <v>0.8620759827300607</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9003382555234306</v>
+        <v>0.8650170159423585</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8865198386062345</v>
+        <v>0.8487781250453827</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2620191923394806</v>
+        <v>0.2517398971849264</v>
       </c>
       <c r="J72" t="n">
         <v>0.2508839887058605</v>
@@ -4298,13 +4298,13 @@
         <v>0.5212357112350099</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4295404521113233</v>
+        <v>0.4159007543873899</v>
       </c>
       <c r="H73" t="n">
-        <v>0.531182866906716</v>
+        <v>0.5131714030310817</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1243692948566988</v>
+        <v>0.1204200519398885</v>
       </c>
       <c r="J73" t="n">
         <v>0.1509187727064813</v>
@@ -4351,13 +4351,13 @@
         <v>1.658871467430357</v>
       </c>
       <c r="G74" t="n">
-        <v>1.06878116647805</v>
+        <v>1.023280061045525</v>
       </c>
       <c r="H74" t="n">
-        <v>1.738407840002402</v>
+        <v>1.657506840293528</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2365868658501495</v>
+        <v>0.2265146787040454</v>
       </c>
       <c r="J74" t="n">
         <v>0.3672100647327851</v>
@@ -4404,13 +4404,13 @@
         <v>0.6395310782127792</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4125670108740378</v>
+        <v>0.3975595193534817</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6640232850412121</v>
+        <v>0.6379729363034307</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1095795513609662</v>
+        <v>0.1055934978362501</v>
       </c>
       <c r="J75" t="n">
         <v>0.1698621721680689</v>
@@ -4457,13 +4457,13 @@
         <v>0.7834994757952481</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4950449715021089</v>
+        <v>0.4782588792229117</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8127716790081961</v>
+        <v>0.7832063871662176</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1420637951507869</v>
+        <v>0.1372466651682356</v>
       </c>
       <c r="J76" t="n">
         <v>0.2248420152463884</v>
@@ -4510,13 +4510,13 @@
         <v>0.4561359446480842</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3184231984848676</v>
+        <v>0.3083119361944977</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4681340874253059</v>
+        <v>0.4522604952409128</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09039693356561179</v>
+        <v>0.08752645456195818</v>
       </c>
       <c r="J77" t="n">
         <v>0.1294921063585761</v>
@@ -4563,13 +4563,13 @@
         <v>1.306047472337817</v>
       </c>
       <c r="G78" t="n">
-        <v>0.8699614455058723</v>
+        <v>0.8423365475716936</v>
       </c>
       <c r="H78" t="n">
-        <v>1.34237458401503</v>
+        <v>1.296857055431408</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2521170644465487</v>
+        <v>0.2441112979740463</v>
       </c>
       <c r="J78" t="n">
         <v>0.3784959166347594</v>
@@ -4616,13 +4616,13 @@
         <v>3.088867106238143</v>
       </c>
       <c r="G79" t="n">
-        <v>1.948928376873254</v>
+        <v>1.858230296467783</v>
       </c>
       <c r="H79" t="n">
-        <v>3.254443799552305</v>
+        <v>3.087436477079326</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4149063701491348</v>
+        <v>0.3955977019768843</v>
       </c>
       <c r="J79" t="n">
         <v>0.6575873460154745</v>
@@ -4669,13 +4669,13 @@
         <v>3.338995357888358</v>
       </c>
       <c r="G80" t="n">
-        <v>1.925738583221796</v>
+        <v>1.836119695768793</v>
       </c>
       <c r="H80" t="n">
-        <v>3.500772137051419</v>
+        <v>3.321124056701285</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3921348466390181</v>
+        <v>0.3738859062098615</v>
       </c>
       <c r="J80" t="n">
         <v>0.6799139010879662</v>
@@ -4722,13 +4722,13 @@
         <v>1.786791817756058</v>
       </c>
       <c r="G81" t="n">
-        <v>1.153739183075665</v>
+        <v>1.108476752150974</v>
       </c>
       <c r="H81" t="n">
-        <v>1.856837283385299</v>
+        <v>1.777786349805723</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2669741790669926</v>
+        <v>0.2565004944457576</v>
       </c>
       <c r="J81" t="n">
         <v>0.4134619727808608</v>
@@ -4775,13 +4775,13 @@
         <v>1.631332631269955</v>
       </c>
       <c r="G82" t="n">
-        <v>1.14363527767888</v>
+        <v>1.102034528515698</v>
       </c>
       <c r="H82" t="n">
-        <v>1.697817226126927</v>
+        <v>1.631210027509074</v>
       </c>
       <c r="I82" t="n">
-        <v>0.298098936650611</v>
+        <v>0.2872553230165662</v>
       </c>
       <c r="J82" t="n">
         <v>0.4252216875401111</v>
@@ -4828,13 +4828,13 @@
         <v>3.024182534173491</v>
       </c>
       <c r="G83" t="n">
-        <v>2.10971001885007</v>
+        <v>2.011529577130155</v>
       </c>
       <c r="H83" t="n">
-        <v>3.187750861588082</v>
+        <v>3.024166000734748</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4624713074402306</v>
+        <v>0.4409490902437566</v>
       </c>
       <c r="J83" t="n">
         <v>0.6629335965705143</v>
@@ -4881,13 +4881,13 @@
         <v>3.545197776249905</v>
       </c>
       <c r="G84" t="n">
-        <v>2.359970467200936</v>
+        <v>2.259499698802566</v>
       </c>
       <c r="H84" t="n">
-        <v>3.703485827261563</v>
+        <v>3.531135186095165</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4975341814197336</v>
+        <v>0.4763527123266127</v>
       </c>
       <c r="J84" t="n">
         <v>0.7474064180428471</v>
@@ -4934,13 +4934,13 @@
         <v>2.173574768147457</v>
       </c>
       <c r="G85" t="n">
-        <v>1.61032158467202</v>
+        <v>1.541765537370135</v>
       </c>
       <c r="H85" t="n">
-        <v>2.273689032867471</v>
+        <v>2.167877432417126</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3718271890718537</v>
+        <v>0.355997430218234</v>
       </c>
       <c r="J85" t="n">
         <v>0.5018837255680101</v>
@@ -4987,13 +4987,13 @@
         <v>2.39390661657653</v>
       </c>
       <c r="G86" t="n">
-        <v>1.91592188428095</v>
+        <v>1.817603091986806</v>
       </c>
       <c r="H86" t="n">
-        <v>2.53550181314162</v>
+        <v>2.390494034377635</v>
       </c>
       <c r="I86" t="n">
-        <v>0.4283304011359155</v>
+        <v>0.4063498976049199</v>
       </c>
       <c r="J86" t="n">
         <v>0.5351903904709434</v>
@@ -5040,13 +5040,13 @@
         <v>2.176836389503507</v>
       </c>
       <c r="G87" t="n">
-        <v>1.450562225218474</v>
+        <v>1.393655106621799</v>
       </c>
       <c r="H87" t="n">
-        <v>2.268811596542573</v>
+        <v>2.172221724921796</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3545273346087641</v>
+        <v>0.3406188453860385</v>
       </c>
       <c r="J87" t="n">
         <v>0.5320337105385524</v>
@@ -5093,13 +5093,13 @@
         <v>2.522820841835583</v>
       </c>
       <c r="G88" t="n">
-        <v>1.549632297162864</v>
+        <v>1.488838552928554</v>
       </c>
       <c r="H88" t="n">
-        <v>2.634996837442757</v>
+        <v>2.522817401019917</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3693659674205581</v>
+        <v>0.3548753426489035</v>
       </c>
       <c r="J88" t="n">
         <v>0.6013324338808687</v>
@@ -5146,13 +5146,13 @@
         <v>2.760168473118987</v>
       </c>
       <c r="G89" t="n">
-        <v>1.757920775958193</v>
+        <v>1.67611169473372</v>
       </c>
       <c r="H89" t="n">
-        <v>2.909333829819695</v>
+        <v>2.760036412803281</v>
       </c>
       <c r="I89" t="n">
-        <v>0.344444754819026</v>
+        <v>0.3284151877818118</v>
       </c>
       <c r="J89" t="n">
         <v>0.5408238903510663</v>
@@ -5199,13 +5199,13 @@
         <v>1.529774196052833</v>
       </c>
       <c r="G90" t="n">
-        <v>1.398118595134406</v>
+        <v>1.338596642839889</v>
       </c>
       <c r="H90" t="n">
-        <v>1.604052821619492</v>
+        <v>1.529404356588019</v>
       </c>
       <c r="I90" t="n">
-        <v>0.2933628806017288</v>
+        <v>0.2808735742975812</v>
       </c>
       <c r="J90" t="n">
         <v>0.3209877662639271</v>
@@ -5252,13 +5252,13 @@
         <v>1.838224687028221</v>
       </c>
       <c r="G91" t="n">
-        <v>1.441409663552253</v>
+        <v>1.374330189974149</v>
       </c>
       <c r="H91" t="n">
-        <v>1.937594442142685</v>
+        <v>1.838163485656268</v>
       </c>
       <c r="I91" t="n">
-        <v>0.296752878515343</v>
+        <v>0.2829427679153217</v>
       </c>
       <c r="J91" t="n">
         <v>0.37844790487199</v>
@@ -5305,13 +5305,13 @@
         <v>2.206898275861396</v>
       </c>
       <c r="G92" t="n">
-        <v>1.577571974058025</v>
+        <v>1.510410172399832</v>
       </c>
       <c r="H92" t="n">
-        <v>2.312803886666965</v>
+        <v>2.205171982198754</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3446989018335088</v>
+        <v>0.3300240726292422</v>
       </c>
       <c r="J92" t="n">
         <v>0.4822064695982657</v>
@@ -5358,13 +5358,13 @@
         <v>1.955795583295034</v>
       </c>
       <c r="G93" t="n">
-        <v>1.523592992258958</v>
+        <v>1.458729231976319</v>
       </c>
       <c r="H93" t="n">
-        <v>2.051250173120595</v>
+        <v>1.955790301254032</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3800273520496258</v>
+        <v>0.363848488541173</v>
       </c>
       <c r="J93" t="n">
         <v>0.4878309498969115</v>
@@ -5411,13 +5411,13 @@
         <v>1.947987306286811</v>
       </c>
       <c r="G94" t="n">
-        <v>1.466891942065594</v>
+        <v>1.404442109482939</v>
       </c>
       <c r="H94" t="n">
-        <v>2.037073658685196</v>
+        <v>1.942273525093979</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3400174484216173</v>
+        <v>0.3255419222289989</v>
       </c>
       <c r="J94" t="n">
         <v>0.4515326960680264</v>
@@ -5464,13 +5464,13 @@
         <v>2.033234970298427</v>
       </c>
       <c r="G95" t="n">
-        <v>1.527787434312917</v>
+        <v>1.44938642190411</v>
       </c>
       <c r="H95" t="n">
-        <v>2.151773170614825</v>
+        <v>2.028711200689361</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3078354693356672</v>
+        <v>0.2920383683062886</v>
       </c>
       <c r="J95" t="n">
         <v>0.4096786158167292</v>
@@ -5517,13 +5517,13 @@
         <v>1.146922303048802</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9264904831592256</v>
+        <v>0.8927885687952262</v>
       </c>
       <c r="H96" t="n">
-        <v>1.188923775348842</v>
+        <v>1.142281014969505</v>
       </c>
       <c r="I96" t="n">
-        <v>0.2451033024230755</v>
+        <v>0.2361874520622291</v>
       </c>
       <c r="J96" t="n">
         <v>0.3034185986901593</v>
@@ -5570,13 +5570,13 @@
         <v>6.740551411667545</v>
       </c>
       <c r="G97" t="n">
-        <v>3.863907472026336</v>
+        <v>3.57728320126333</v>
       </c>
       <c r="H97" t="n">
-        <v>7.309680339567981</v>
+        <v>6.672794683555676</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5321139544399833</v>
+        <v>0.4926417943899923</v>
       </c>
       <c r="J97" t="n">
         <v>0.9282679496689517</v>
@@ -5623,13 +5623,13 @@
         <v>3.911030189458673</v>
       </c>
       <c r="G98" t="n">
-        <v>2.686181237902078</v>
+        <v>2.51269246775247</v>
       </c>
       <c r="H98" t="n">
-        <v>4.221287323396344</v>
+        <v>3.90815265091541</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4162202189273025</v>
+        <v>0.3893383641685021</v>
       </c>
       <c r="J98" t="n">
         <v>0.606008938905082</v>
@@ -5676,13 +5676,13 @@
         <v>1.389044799329904</v>
       </c>
       <c r="G99" t="n">
-        <v>1.146917806359922</v>
+        <v>1.098090198177424</v>
       </c>
       <c r="H99" t="n">
-        <v>1.444929693162203</v>
+        <v>1.377686406520273</v>
       </c>
       <c r="I99" t="n">
-        <v>0.282318229257827</v>
+        <v>0.270299125705212</v>
       </c>
       <c r="J99" t="n">
         <v>0.3419187198350535</v>
@@ -5729,13 +5729,13 @@
         <v>3.216241984055304</v>
       </c>
       <c r="G100" t="n">
-        <v>1.783223516868009</v>
+        <v>1.681239254864924</v>
       </c>
       <c r="H100" t="n">
-        <v>3.426282606557725</v>
+        <v>3.204993906000447</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3064542992517106</v>
+        <v>0.2889278841662081</v>
       </c>
       <c r="J100" t="n">
         <v>0.5527244196390632</v>
@@ -5782,13 +5782,13 @@
         <v>5.732932156506921</v>
       </c>
       <c r="G101" t="n">
-        <v>3.384021440699085</v>
+        <v>3.210364621036058</v>
       </c>
       <c r="H101" t="n">
-        <v>6.077313231281658</v>
+        <v>5.729745862978652</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6474117927490118</v>
+        <v>0.6141887547419282</v>
       </c>
       <c r="J101" t="n">
         <v>1.096792071265912</v>
@@ -5835,13 +5835,13 @@
         <v>3.128619503870677</v>
       </c>
       <c r="G102" t="n">
-        <v>2.255381443247562</v>
+        <v>2.150421830615281</v>
       </c>
       <c r="H102" t="n">
-        <v>3.227674773648121</v>
+        <v>3.062041149298945</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4568912684295245</v>
+        <v>0.4356287318005174</v>
       </c>
       <c r="J102" t="n">
         <v>0.6337903230677245</v>
@@ -5888,13 +5888,13 @@
         <v>5.311230240411978</v>
       </c>
       <c r="G103" t="n">
-        <v>3.203173599902308</v>
+        <v>3.038797294983659</v>
       </c>
       <c r="H103" t="n">
-        <v>5.631229390146031</v>
+        <v>5.309173984252327</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5825011092748331</v>
+        <v>0.5526090734649315</v>
       </c>
       <c r="J103" t="n">
         <v>0.96585383531769</v>
@@ -5941,13 +5941,13 @@
         <v>2.610620935077835</v>
       </c>
       <c r="G104" t="n">
-        <v>1.847004157811877</v>
+        <v>1.774544195164414</v>
       </c>
       <c r="H104" t="n">
-        <v>2.717224937990296</v>
+        <v>2.601544813503444</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4355351723481661</v>
+        <v>0.4184486583917537</v>
       </c>
       <c r="J104" t="n">
         <v>0.6156008009434401</v>
@@ -5994,13 +5994,13 @@
         <v>1.782063410768539</v>
       </c>
       <c r="G105" t="n">
-        <v>1.224979853314185</v>
+        <v>1.176922574157761</v>
       </c>
       <c r="H105" t="n">
-        <v>1.860711007799291</v>
+        <v>1.781495158567657</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2977699718228198</v>
+        <v>0.2860881350794857</v>
       </c>
       <c r="J105" t="n">
         <v>0.4331866929691663</v>
@@ -6047,13 +6047,13 @@
         <v>1.101113073212738</v>
       </c>
       <c r="G106" t="n">
-        <v>1.551238215104308</v>
+        <v>1.479047605110065</v>
       </c>
       <c r="H106" t="n">
-        <v>1.078476806529571</v>
+        <v>1.02313293368946</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3300506840647464</v>
+        <v>0.3146909798106521</v>
       </c>
       <c r="J106" t="n">
         <v>0.234279377279306</v>
@@ -6100,13 +6100,13 @@
         <v>0.8962282075453772</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7198842499550419</v>
+        <v>0.6916424153919644</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9299376811964825</v>
+        <v>0.8903475445015838</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1841136189143329</v>
+        <v>0.176890643322753</v>
       </c>
       <c r="J107" t="n">
         <v>0.2292143753312985</v>
@@ -6153,13 +6153,13 @@
         <v>0.6474034677077347</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4931411920475895</v>
+        <v>0.4784172289776978</v>
       </c>
       <c r="H108" t="n">
-        <v>0.6669729504760044</v>
+        <v>0.6457937823910973</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1492504942996087</v>
+        <v>0.144794247687749</v>
       </c>
       <c r="J108" t="n">
         <v>0.1959383826069342</v>
@@ -6206,13 +6206,13 @@
         <v>2.558346411969334</v>
       </c>
       <c r="G109" t="n">
-        <v>2.304642876429836</v>
+        <v>2.206527563591465</v>
       </c>
       <c r="H109" t="n">
-        <v>2.616640107952459</v>
+        <v>2.494868452452218</v>
       </c>
       <c r="I109" t="n">
-        <v>0.5165430429054545</v>
+        <v>0.4945523116006272</v>
       </c>
       <c r="J109" t="n">
         <v>0.57340599446455</v>
@@ -6259,13 +6259,13 @@
         <v>1.564640533796821</v>
       </c>
       <c r="G110" t="n">
-        <v>1.120501261455371</v>
+        <v>1.076542789998719</v>
       </c>
       <c r="H110" t="n">
-        <v>1.633011718490493</v>
+        <v>1.56348968656656</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2676192614168625</v>
+        <v>0.257120269520179</v>
       </c>
       <c r="J110" t="n">
         <v>0.373696985841607</v>
@@ -6312,13 +6312,13 @@
         <v>1.375077620186752</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9391274884489536</v>
+        <v>0.9049658917915759</v>
       </c>
       <c r="H111" t="n">
-        <v>1.428051388862029</v>
+        <v>1.372027394623603</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2553959758796688</v>
+        <v>0.2461057203784394</v>
       </c>
       <c r="J111" t="n">
         <v>0.3739527327625199</v>
@@ -6365,13 +6365,13 @@
         <v>1.600353326372264</v>
       </c>
       <c r="G112" t="n">
-        <v>1.153566138184038</v>
+        <v>1.111604145147995</v>
       </c>
       <c r="H112" t="n">
-        <v>1.665644943234625</v>
+        <v>1.600299897929638</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2989066432459103</v>
+        <v>0.2880336485669429</v>
       </c>
       <c r="J112" t="n">
         <v>0.4146760423692706</v>
@@ -6418,13 +6418,13 @@
         <v>0.7345666990097752</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5773695138778593</v>
+        <v>0.5611023101620023</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7565172716818442</v>
+        <v>0.7339295573525497</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1914637297310513</v>
+        <v>0.1860692996115704</v>
       </c>
       <c r="J113" t="n">
         <v>0.2435924941447302</v>
@@ -6471,13 +6471,13 @@
         <v>1.419258022113433</v>
       </c>
       <c r="G114" t="n">
-        <v>1.095186437705167</v>
+        <v>1.060409708556084</v>
       </c>
       <c r="H114" t="n">
-        <v>1.468322009577437</v>
+        <v>1.418533828367241</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3306223208166541</v>
+        <v>0.3201236856018368</v>
       </c>
       <c r="J114" t="n">
         <v>0.4284552519587721</v>
@@ -6524,13 +6524,13 @@
         <v>1.768060649847301</v>
       </c>
       <c r="G115" t="n">
-        <v>1.306072251169408</v>
+        <v>1.258562712796155</v>
       </c>
       <c r="H115" t="n">
-        <v>1.840128897380387</v>
+        <v>1.767938658605472</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3440265572224217</v>
+        <v>0.3315122855907087</v>
       </c>
       <c r="J115" t="n">
         <v>0.4657168221610954</v>
@@ -6577,13 +6577,13 @@
         <v>0.6658978900702419</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4937674047565311</v>
+        <v>0.4780882338805255</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6892694545331172</v>
+        <v>0.6658975563519929</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1427331251328726</v>
+        <v>0.1382007541479387</v>
       </c>
       <c r="J116" t="n">
         <v>0.1924908083310546</v>
@@ -6630,13 +6630,13 @@
         <v>1.760727559408763</v>
       </c>
       <c r="G117" t="n">
-        <v>1.228979966574622</v>
+        <v>1.184274728537708</v>
       </c>
       <c r="H117" t="n">
-        <v>1.832514036046571</v>
+        <v>1.760622536484278</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3159911759787824</v>
+        <v>0.3044967162447733</v>
       </c>
       <c r="J117" t="n">
         <v>0.4527123201418306</v>
@@ -6683,13 +6683,13 @@
         <v>0.6965270992574518</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5087181121672973</v>
+        <v>0.4935290612071952</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7193515598555875</v>
+        <v>0.6965091528472545</v>
       </c>
       <c r="I118" t="n">
-        <v>0.150168569314882</v>
+        <v>0.1456849112783872</v>
       </c>
       <c r="J118" t="n">
         <v>0.2056079299770217</v>
@@ -6736,13 +6736,13 @@
         <v>0.492580241298458</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3628072283835044</v>
+        <v>0.3525852493010611</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5076691256876575</v>
+        <v>0.4925113948412188</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1193226769761206</v>
+        <v>0.1159607982353206</v>
       </c>
       <c r="J119" t="n">
         <v>0.1620033682326374</v>
@@ -6789,13 +6789,13 @@
         <v>1.888931321795882</v>
       </c>
       <c r="G120" t="n">
-        <v>1.555536019413343</v>
+        <v>1.498952014861431</v>
       </c>
       <c r="H120" t="n">
-        <v>1.949085913302925</v>
+        <v>1.872621173428197</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3869492585605331</v>
+        <v>0.3728736355376694</v>
       </c>
       <c r="J120" t="n">
         <v>0.4698834133820603</v>
@@ -6842,13 +6842,13 @@
         <v>0.7168356389949745</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5868730697518842</v>
+        <v>0.5682374063716679</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7376649129581289</v>
+        <v>0.7126520110747523</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1747946596431524</v>
+        <v>0.1692442014509808</v>
       </c>
       <c r="J121" t="n">
         <v>0.2135027964244153</v>
@@ -6895,13 +6895,13 @@
         <v>0.9885747316212364</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7477343556816596</v>
+        <v>0.7239906767355502</v>
       </c>
       <c r="H122" t="n">
-        <v>1.018162677618482</v>
+        <v>0.98363859668523</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2307822085437221</v>
+        <v>0.2234539125727007</v>
       </c>
       <c r="J122" t="n">
         <v>0.305115657907789</v>
@@ -6948,13 +6948,13 @@
         <v>1.604444719254253</v>
       </c>
       <c r="G123" t="n">
-        <v>1.374985714211502</v>
+        <v>1.328362400351149</v>
       </c>
       <c r="H123" t="n">
-        <v>1.663901148796716</v>
+        <v>1.603375266398343</v>
       </c>
       <c r="I123" t="n">
-        <v>0.3756791568883886</v>
+        <v>0.3629405465440299</v>
       </c>
       <c r="J123" t="n">
         <v>0.4383728741131839</v>
@@ -7001,13 +7001,13 @@
         <v>1.644104185089428</v>
       </c>
       <c r="G124" t="n">
-        <v>1.511581322733943</v>
+        <v>1.460326295349395</v>
       </c>
       <c r="H124" t="n">
-        <v>1.657651092014584</v>
+        <v>1.59735256098384</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4291014352954039</v>
+        <v>0.4145513707464219</v>
       </c>
       <c r="J124" t="n">
         <v>0.4667214757066885</v>
@@ -7054,13 +7054,13 @@
         <v>1.50667001876806</v>
       </c>
       <c r="G125" t="n">
-        <v>1.59360559357665</v>
+        <v>1.525761194362415</v>
       </c>
       <c r="H125" t="n">
-        <v>1.490657573019371</v>
+        <v>1.4212862292496</v>
       </c>
       <c r="I125" t="n">
-        <v>0.386016696062168</v>
+        <v>0.3695828488564589</v>
       </c>
       <c r="J125" t="n">
         <v>0.364958421986611</v>
@@ -7107,13 +7107,13 @@
         <v>1.561192309925791</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9998461786456859</v>
+        <v>0.9659431775328309</v>
       </c>
       <c r="H126" t="n">
-        <v>1.620076819505452</v>
+        <v>1.561145086015978</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2823892426978966</v>
+        <v>0.272813927000423</v>
       </c>
       <c r="J126" t="n">
         <v>0.4409317388229499</v>
@@ -7160,13 +7160,13 @@
         <v>2.848906807882631</v>
       </c>
       <c r="G127" t="n">
-        <v>2.268507719344872</v>
+        <v>2.162937243810175</v>
       </c>
       <c r="H127" t="n">
-        <v>2.931269918198141</v>
+        <v>2.780846813472472</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4681723248178911</v>
+        <v>0.4463847970339948</v>
       </c>
       <c r="J127" t="n">
         <v>0.587954500688723</v>
@@ -7213,13 +7213,13 @@
         <v>0.987137275154778</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7769681996924542</v>
+        <v>0.7522962244854084</v>
       </c>
       <c r="H128" t="n">
-        <v>1.019809972961817</v>
+        <v>0.9852300351807299</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2236281920323667</v>
+        <v>0.2165270658709576</v>
       </c>
       <c r="J128" t="n">
         <v>0.2841193812282146</v>
@@ -7266,13 +7266,13 @@
         <v>0.7168769071465477</v>
       </c>
       <c r="G129" t="n">
-        <v>0.5317866666470018</v>
+        <v>0.5159088463248745</v>
       </c>
       <c r="H129" t="n">
-        <v>0.7401970458375707</v>
+        <v>0.7166927078602099</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1605179924183067</v>
+        <v>0.1557253264830055</v>
       </c>
       <c r="J129" t="n">
         <v>0.2163868505236384</v>
@@ -7319,13 +7319,13 @@
         <v>0.8674368372778888</v>
       </c>
       <c r="G130" t="n">
-        <v>0.6876720996715416</v>
+        <v>0.6658356474198419</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8978758000864887</v>
+        <v>0.8674304326893053</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1995783347495858</v>
+        <v>0.1932408916872387</v>
       </c>
       <c r="J130" t="n">
         <v>0.2517502157889756</v>
@@ -7372,13 +7372,13 @@
         <v>0.8518020114244078</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5211105928687307</v>
+        <v>0.5045631619282169</v>
       </c>
       <c r="H131" t="n">
-        <v>0.88166617157246</v>
+        <v>0.8517704437751343</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1494491752267376</v>
+        <v>0.1447035416893972</v>
       </c>
       <c r="J131" t="n">
         <v>0.2442880835775323</v>
@@ -7425,13 +7425,13 @@
         <v>1.573916558567618</v>
       </c>
       <c r="G132" t="n">
-        <v>1.364103948873888</v>
+        <v>1.320787969121085</v>
       </c>
       <c r="H132" t="n">
-        <v>1.628269019541918</v>
+        <v>1.573057320422029</v>
       </c>
       <c r="I132" t="n">
-        <v>0.4024647461180564</v>
+        <v>0.3896848147877071</v>
       </c>
       <c r="J132" t="n">
         <v>0.4643677841984489</v>
@@ -7478,13 +7478,13 @@
         <v>1.167116762993977</v>
       </c>
       <c r="G133" t="n">
-        <v>0.735936646222178</v>
+        <v>0.7091662969534676</v>
       </c>
       <c r="H133" t="n">
-        <v>1.214285692738634</v>
+        <v>1.166647957021012</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1940688085724335</v>
+        <v>0.1870093832614155</v>
       </c>
       <c r="J133" t="n">
         <v>0.3077723616861118</v>
@@ -7531,13 +7531,13 @@
         <v>0.5207386580617959</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5238544925948089</v>
+        <v>0.5082135071582921</v>
       </c>
       <c r="H134" t="n">
-        <v>0.5370315788356087</v>
+        <v>0.519978590304447</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1662409254080969</v>
+        <v>0.1612773870018847</v>
       </c>
       <c r="J134" t="n">
         <v>0.1652521408820334</v>
@@ -7584,13 +7584,13 @@
         <v>3.877954787427689</v>
       </c>
       <c r="G135" t="n">
-        <v>2.83438818976096</v>
+        <v>2.723192087960193</v>
       </c>
       <c r="H135" t="n">
-        <v>4.049044780730838</v>
+        <v>3.876665233591022</v>
       </c>
       <c r="I135" t="n">
-        <v>0.6975964874459007</v>
+        <v>0.6702290258137544</v>
       </c>
       <c r="J135" t="n">
         <v>0.9544379446527822</v>
@@ -7637,13 +7637,13 @@
         <v>0.9056192101795069</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9714292178407675</v>
+        <v>0.936092617081826</v>
       </c>
       <c r="H136" t="n">
-        <v>0.9425708162200565</v>
+        <v>0.9055927477912303</v>
       </c>
       <c r="I136" t="n">
-        <v>0.2596412571548443</v>
+        <v>0.2501965757759749</v>
       </c>
       <c r="J136" t="n">
         <v>0.2420517171155612</v>
@@ -7690,13 +7690,13 @@
         <v>1.152185214811737</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9935406770349551</v>
+        <v>0.9573997523053188</v>
       </c>
       <c r="H137" t="n">
-        <v>1.196168562857773</v>
+        <v>1.149241581660597</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2587345513111863</v>
+        <v>0.2493228521628435</v>
       </c>
       <c r="J137" t="n">
         <v>0.3000482330238899</v>
@@ -7743,13 +7743,13 @@
         <v>0.7389812807732909</v>
       </c>
       <c r="G138" t="n">
-        <v>0.498582992088579</v>
+        <v>0.4827509062653327</v>
       </c>
       <c r="H138" t="n">
-        <v>0.7599605252906233</v>
+        <v>0.7341916189478965</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1478926190844876</v>
+        <v>0.1431964126853045</v>
       </c>
       <c r="J138" t="n">
         <v>0.2192009731622665</v>
@@ -7796,13 +7796,13 @@
         <v>0.6136390968447746</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5378840777023908</v>
+        <v>0.5227293636809788</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6122505494437042</v>
+        <v>0.5939702787526683</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1772919501674242</v>
+        <v>0.1722968054615935</v>
       </c>
       <c r="J139" t="n">
         <v>0.2022615591138243</v>
@@ -7849,13 +7849,13 @@
         <v>1.150973500998177</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8196887112394152</v>
+        <v>0.7936601819261188</v>
       </c>
       <c r="H140" t="n">
-        <v>1.190122842799171</v>
+        <v>1.149767899283252</v>
       </c>
       <c r="I140" t="n">
-        <v>0.2420191802884415</v>
+        <v>0.234334063679976</v>
       </c>
       <c r="J140" t="n">
         <v>0.3398334751055698</v>
@@ -7902,13 +7902,13 @@
         <v>0.9456496884858226</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7434175027084937</v>
+        <v>0.7198109018172758</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9725934892019867</v>
+        <v>0.9396145781944613</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2159920109557999</v>
+        <v>0.2091333653364157</v>
       </c>
       <c r="J141" t="n">
         <v>0.274748411399549</v>
@@ -7955,13 +7955,13 @@
         <v>1.231384238512554</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9666766830351344</v>
+        <v>0.9338984003745924</v>
       </c>
       <c r="H142" t="n">
-        <v>1.277831482122465</v>
+        <v>1.231349226810716</v>
       </c>
       <c r="I142" t="n">
-        <v>0.2679754249773982</v>
+        <v>0.2588888561378468</v>
       </c>
       <c r="J142" t="n">
         <v>0.3413558229105215</v>
@@ -8008,13 +8008,13 @@
         <v>0.4631096935233532</v>
       </c>
       <c r="G143" t="n">
-        <v>0.3720711331245347</v>
+        <v>0.3615881464516239</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4769171835864169</v>
+        <v>0.4626776288467967</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1205631034426935</v>
+        <v>0.1171662760779339</v>
       </c>
       <c r="J143" t="n">
         <v>0.1500625469562621</v>
@@ -8061,13 +8061,13 @@
         <v>0.6779841443573735</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5251729407034018</v>
+        <v>0.5094925897026744</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6999511887743791</v>
+        <v>0.6777248243203136</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1627107707664996</v>
+        <v>0.1578526339519859</v>
       </c>
       <c r="J144" t="n">
         <v>0.2100552297079524</v>
@@ -8114,13 +8114,13 @@
         <v>0.5876173224531922</v>
       </c>
       <c r="G145" t="n">
-        <v>0.3707195793803555</v>
+        <v>0.3602746723073562</v>
       </c>
       <c r="H145" t="n">
-        <v>0.6051664817124585</v>
+        <v>0.5870977235726788</v>
       </c>
       <c r="I145" t="n">
-        <v>0.1204721507284058</v>
+        <v>0.1170778859276478</v>
       </c>
       <c r="J145" t="n">
         <v>0.1909570645271251</v>
@@ -8167,13 +8167,13 @@
         <v>2.612304219139366</v>
       </c>
       <c r="G146" t="n">
-        <v>1.748883160103129</v>
+        <v>1.680272589888724</v>
       </c>
       <c r="H146" t="n">
-        <v>2.723446457351532</v>
+        <v>2.607501464791322</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4220434579792219</v>
+        <v>0.405486238510366</v>
       </c>
       <c r="J146" t="n">
         <v>0.630405696098232</v>
@@ -8220,13 +8220,13 @@
         <v>4.165162661889688</v>
       </c>
       <c r="G147" t="n">
-        <v>2.952126198337241</v>
+        <v>2.814741888846373</v>
       </c>
       <c r="H147" t="n">
-        <v>4.387144857421511</v>
+        <v>4.162011052363989</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5891398436449501</v>
+        <v>0.5617228007494576</v>
       </c>
       <c r="J147" t="n">
         <v>0.8312189637297999</v>
@@ -8273,13 +8273,13 @@
         <v>2.1074028249641</v>
       </c>
       <c r="G148" t="n">
-        <v>2.018073235374111</v>
+        <v>1.953991008007713</v>
       </c>
       <c r="H148" t="n">
-        <v>2.119419956587404</v>
+        <v>2.047554204953369</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5734180743382309</v>
+        <v>0.5552096630815737</v>
       </c>
       <c r="J148" t="n">
         <v>0.5988003054417617</v>
@@ -8326,13 +8326,13 @@
         <v>2.280695382678587</v>
       </c>
       <c r="G149" t="n">
-        <v>1.694422222076501</v>
+        <v>1.636967385815069</v>
       </c>
       <c r="H149" t="n">
-        <v>2.362141885178425</v>
+        <v>2.276216875718595</v>
       </c>
       <c r="I149" t="n">
-        <v>0.45508206501607</v>
+        <v>0.4396510436387831</v>
       </c>
       <c r="J149" t="n">
         <v>0.6125412845152874</v>
@@ -8379,13 +8379,13 @@
         <v>2.242554347167533</v>
       </c>
       <c r="G150" t="n">
-        <v>1.665067293207422</v>
+        <v>1.587579372649699</v>
       </c>
       <c r="H150" t="n">
-        <v>2.315994866622597</v>
+        <v>2.197145648335585</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3734095866520212</v>
+        <v>0.3560320713383625</v>
       </c>
       <c r="J150" t="n">
         <v>0.502917386724625</v>
@@ -8432,13 +8432,13 @@
         <v>3.100510221941485</v>
       </c>
       <c r="G151" t="n">
-        <v>2.514570118089348</v>
+        <v>2.407517595412798</v>
       </c>
       <c r="H151" t="n">
-        <v>3.159731288920281</v>
+        <v>3.012685576054244</v>
       </c>
       <c r="I151" t="n">
-        <v>0.6248672896473841</v>
+        <v>0.5982648818586369</v>
       </c>
       <c r="J151" t="n">
         <v>0.7704726167591183</v>
@@ -8485,13 +8485,13 @@
         <v>2.265122914585833</v>
       </c>
       <c r="G152" t="n">
-        <v>1.342745660611461</v>
+        <v>1.285581094291605</v>
       </c>
       <c r="H152" t="n">
-        <v>2.373916977946327</v>
+        <v>2.263441028446776</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3410147709489425</v>
+        <v>0.3264967858518362</v>
       </c>
       <c r="J152" t="n">
         <v>0.5752693116408464</v>
@@ -8538,13 +8538,13 @@
         <v>1.842917184791546</v>
       </c>
       <c r="G153" t="n">
-        <v>1.354962556461161</v>
+        <v>1.314506762128541</v>
       </c>
       <c r="H153" t="n">
-        <v>1.899687583963917</v>
+        <v>1.839364593922314</v>
       </c>
       <c r="I153" t="n">
-        <v>0.4245965614717002</v>
+        <v>0.4119191696992663</v>
       </c>
       <c r="J153" t="n">
         <v>0.5775040026074892</v>
@@ -8591,13 +8591,13 @@
         <v>1.983770514587173</v>
       </c>
       <c r="G154" t="n">
-        <v>1.259541462981548</v>
+        <v>1.20591914000161</v>
       </c>
       <c r="H154" t="n">
-        <v>2.072526784562089</v>
+        <v>1.976076754289412</v>
       </c>
       <c r="I154" t="n">
-        <v>0.2981751342627455</v>
+        <v>0.2854809564020382</v>
       </c>
       <c r="J154" t="n">
         <v>0.4696241107722642</v>
@@ -8644,13 +8644,13 @@
         <v>1.806963382768635</v>
       </c>
       <c r="G155" t="n">
-        <v>1.700752849890382</v>
+        <v>1.634030483590124</v>
       </c>
       <c r="H155" t="n">
-        <v>1.883028669377333</v>
+        <v>1.802862692744206</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4193813931823779</v>
+        <v>0.4029286093829972</v>
       </c>
       <c r="J155" t="n">
         <v>0.4455713955992461</v>
@@ -8697,13 +8697,13 @@
         <v>3.600496493540856</v>
       </c>
       <c r="G156" t="n">
-        <v>2.26110790860564</v>
+        <v>2.172402209754618</v>
       </c>
       <c r="H156" t="n">
-        <v>3.749809995186422</v>
+        <v>3.590169738327144</v>
       </c>
       <c r="I156" t="n">
-        <v>0.5275377389065564</v>
+        <v>0.5068418651617019</v>
       </c>
       <c r="J156" t="n">
         <v>0.84002969160142</v>
@@ -8750,13 +8750,13 @@
         <v>3.552654719439472</v>
       </c>
       <c r="G157" t="n">
-        <v>2.564016813950763</v>
+        <v>2.432439927315781</v>
       </c>
       <c r="H157" t="n">
-        <v>3.767920514023617</v>
+        <v>3.552429528584002</v>
       </c>
       <c r="I157" t="n">
-        <v>0.5071235787086161</v>
+        <v>0.4810996691684694</v>
       </c>
       <c r="J157" t="n">
         <v>0.7026611391296423</v>
@@ -8803,13 +8803,13 @@
         <v>1.35393342313635</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9033545947243108</v>
+        <v>0.8727234511700841</v>
       </c>
       <c r="H158" t="n">
-        <v>1.403493482722294</v>
+        <v>1.352440160508073</v>
       </c>
       <c r="I158" t="n">
-        <v>0.256829395770748</v>
+        <v>0.2481207689073401</v>
       </c>
       <c r="J158" t="n">
         <v>0.3849317920213277</v>
@@ -8856,13 +8856,13 @@
         <v>2.034431124417831</v>
       </c>
       <c r="G159" t="n">
-        <v>1.832578908136142</v>
+        <v>1.747295430748346</v>
       </c>
       <c r="H159" t="n">
-        <v>2.109682703894382</v>
+        <v>2.001420745370648</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3885575942462907</v>
+        <v>0.3704751298811065</v>
       </c>
       <c r="J159" t="n">
         <v>0.4313558667809588</v>
@@ -8909,13 +8909,13 @@
         <v>3.297052555776986</v>
       </c>
       <c r="G160" t="n">
-        <v>2.696664606509308</v>
+        <v>2.558280672639341</v>
       </c>
       <c r="H160" t="n">
-        <v>3.496734587837312</v>
+        <v>3.296752985425747</v>
       </c>
       <c r="I160" t="n">
-        <v>0.536116223958113</v>
+        <v>0.5086045074829705</v>
       </c>
       <c r="J160" t="n">
         <v>0.6554776452836951</v>
@@ -8962,13 +8962,13 @@
         <v>1.903647814066457</v>
       </c>
       <c r="G161" t="n">
-        <v>1.39273112983088</v>
+        <v>1.313079501697356</v>
       </c>
       <c r="H161" t="n">
-        <v>1.989075521082955</v>
+        <v>1.860609779077816</v>
       </c>
       <c r="I161" t="n">
-        <v>0.2813598242082587</v>
+        <v>0.2652685862014862</v>
       </c>
       <c r="J161" t="n">
         <v>0.3845753159730217</v>
@@ -9015,13 +9015,13 @@
         <v>3.403568982433266</v>
       </c>
       <c r="G162" t="n">
-        <v>2.231657897101832</v>
+        <v>2.136649765923799</v>
       </c>
       <c r="H162" t="n">
-        <v>3.569121613353781</v>
+        <v>3.403023934800701</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5161891820590205</v>
+        <v>0.4942135156338779</v>
       </c>
       <c r="J162" t="n">
         <v>0.7872557399614339</v>
@@ -9068,13 +9068,13 @@
         <v>4.480400173453898</v>
       </c>
       <c r="G163" t="n">
-        <v>3.680363918341306</v>
+        <v>3.442665210269509</v>
       </c>
       <c r="H163" t="n">
-        <v>4.838280883202412</v>
+        <v>4.479377690014085</v>
       </c>
       <c r="I163" t="n">
-        <v>0.560390394874961</v>
+        <v>0.524197215115266</v>
       </c>
       <c r="J163" t="n">
         <v>0.6822078680554089</v>
@@ -9121,13 +9121,13 @@
         <v>1.241721922707872</v>
       </c>
       <c r="G164" t="n">
-        <v>1.142713145690262</v>
+        <v>1.106427245687668</v>
       </c>
       <c r="H164" t="n">
-        <v>1.278094936484245</v>
+        <v>1.234757016132684</v>
       </c>
       <c r="I164" t="n">
-        <v>0.3244040158098685</v>
+        <v>0.314102837668607</v>
       </c>
       <c r="J164" t="n">
         <v>0.3525115465458826</v>
@@ -9174,13 +9174,13 @@
         <v>1.628739054941248</v>
       </c>
       <c r="G165" t="n">
-        <v>1.492143059190676</v>
+        <v>1.428618213519623</v>
       </c>
       <c r="H165" t="n">
-        <v>1.64228997550261</v>
+        <v>1.565862052334799</v>
       </c>
       <c r="I165" t="n">
-        <v>0.3796801677329965</v>
+        <v>0.3635160848650441</v>
       </c>
       <c r="J165" t="n">
         <v>0.414437418560114</v>
@@ -9227,13 +9227,13 @@
         <v>1.385529381379791</v>
       </c>
       <c r="G166" t="n">
-        <v>1.402597864404038</v>
+        <v>1.34757243934786</v>
       </c>
       <c r="H166" t="n">
-        <v>1.446740065865951</v>
+        <v>1.385148156937252</v>
       </c>
       <c r="I166" t="n">
-        <v>0.3453365954025094</v>
+        <v>0.331788668778829</v>
       </c>
       <c r="J166" t="n">
         <v>0.3411341279912364</v>
@@ -9280,13 +9280,13 @@
         <v>1.426827376957831</v>
       </c>
       <c r="G167" t="n">
-        <v>1.205707072822643</v>
+        <v>1.154376635533943</v>
       </c>
       <c r="H167" t="n">
-        <v>1.494324414090011</v>
+        <v>1.424782425031164</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2766969759776575</v>
+        <v>0.2649171854352136</v>
       </c>
       <c r="J167" t="n">
         <v>0.3274417388314011</v>
@@ -9333,13 +9333,13 @@
         <v>2.553827786605111</v>
       </c>
       <c r="G168" t="n">
-        <v>1.927094492187184</v>
+        <v>1.845052506027945</v>
       </c>
       <c r="H168" t="n">
-        <v>2.67839504181142</v>
+        <v>2.553749471588073</v>
       </c>
       <c r="I168" t="n">
-        <v>0.4054906874670561</v>
+        <v>0.3882277761237127</v>
       </c>
       <c r="J168" t="n">
         <v>0.5373651313214332</v>
@@ -9386,13 +9386,13 @@
         <v>1.906906307784068</v>
       </c>
       <c r="G169" t="n">
-        <v>1.571307637704244</v>
+        <v>1.50966354651248</v>
       </c>
       <c r="H169" t="n">
-        <v>1.985319415564705</v>
+        <v>1.900798626016619</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3929024675929058</v>
+        <v>0.3774884805666905</v>
       </c>
       <c r="J169" t="n">
         <v>0.4768182727677031</v>
@@ -9439,13 +9439,13 @@
         <v>1.286019499792345</v>
       </c>
       <c r="G170" t="n">
-        <v>1.591770215069505</v>
+        <v>1.533868159462294</v>
       </c>
       <c r="H170" t="n">
-        <v>1.274729735055983</v>
+        <v>1.224720714449774</v>
       </c>
       <c r="I170" t="n">
-        <v>0.4329664466868675</v>
+        <v>0.4172169075669733</v>
       </c>
       <c r="J170" t="n">
         <v>0.3498013016726799</v>
@@ -9492,13 +9492,13 @@
         <v>1.298724226071346</v>
       </c>
       <c r="G171" t="n">
-        <v>1.081648365603715</v>
+        <v>1.042302445432756</v>
       </c>
       <c r="H171" t="n">
-        <v>1.351749104318416</v>
+        <v>1.298718530893129</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3111378080635299</v>
+        <v>0.2998198938988818</v>
       </c>
       <c r="J171" t="n">
         <v>0.37358001160877</v>
@@ -9545,13 +9545,13 @@
         <v>4.223476056520268</v>
       </c>
       <c r="G172" t="n">
-        <v>3.88430712202084</v>
+        <v>3.703541525987085</v>
       </c>
       <c r="H172" t="n">
-        <v>4.439848470887767</v>
+        <v>4.212010090206338</v>
       </c>
       <c r="I172" t="n">
-        <v>0.7687545581545383</v>
+        <v>0.7329787115123773</v>
       </c>
       <c r="J172" t="n">
         <v>0.8358804717834284</v>
@@ -9598,13 +9598,13 @@
         <v>1.557073191303775</v>
       </c>
       <c r="G173" t="n">
-        <v>1.16482324273393</v>
+        <v>1.122451762519741</v>
       </c>
       <c r="H173" t="n">
-        <v>1.620336701318904</v>
+        <v>1.556769147148925</v>
       </c>
       <c r="I173" t="n">
-        <v>0.3003227513494477</v>
+        <v>0.2893982444802279</v>
       </c>
       <c r="J173" t="n">
         <v>0.4014553347744539</v>
@@ -9651,13 +9651,13 @@
         <v>2.31837443050082</v>
       </c>
       <c r="G174" t="n">
-        <v>1.973059000177597</v>
+        <v>1.881237943043651</v>
       </c>
       <c r="H174" t="n">
-        <v>2.435032283609854</v>
+        <v>2.310074457674471</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4004363284493277</v>
+        <v>0.3818010585512945</v>
       </c>
       <c r="J174" t="n">
         <v>0.4705187958580999</v>
@@ -9704,13 +9704,13 @@
         <v>1.477877896486403</v>
       </c>
       <c r="G175" t="n">
-        <v>1.224164438067277</v>
+        <v>1.179634369157647</v>
       </c>
       <c r="H175" t="n">
-        <v>1.534912508990792</v>
+        <v>1.474696237902179</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3096350882193654</v>
+        <v>0.2983718368239757</v>
       </c>
       <c r="J175" t="n">
         <v>0.3738083207011679</v>
@@ -9757,13 +9757,13 @@
         <v>1.677883587539176</v>
       </c>
       <c r="G176" t="n">
-        <v>1.152200792686182</v>
+        <v>1.115613620390142</v>
       </c>
       <c r="H176" t="n">
-        <v>1.730247160984591</v>
+        <v>1.671577564923493</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3327655718949263</v>
+        <v>0.322198879535059</v>
       </c>
       <c r="J176" t="n">
         <v>0.4845873177008449</v>
@@ -9810,13 +9810,13 @@
         <v>0.225948979144564</v>
       </c>
       <c r="G177" t="n">
-        <v>0.2920112810069058</v>
+        <v>0.2837839553839035</v>
       </c>
       <c r="H177" t="n">
-        <v>0.2276655829216591</v>
+        <v>0.2208680578126627</v>
       </c>
       <c r="I177" t="n">
-        <v>0.1010419657463342</v>
+        <v>0.09819514027124689</v>
       </c>
       <c r="J177" t="n">
         <v>0.0781830377662851</v>
@@ -9863,13 +9863,13 @@
         <v>0.2263109954612604</v>
       </c>
       <c r="G178" t="n">
-        <v>0.3336340748581186</v>
+        <v>0.3247355625667873</v>
       </c>
       <c r="H178" t="n">
-        <v>0.2300703217305014</v>
+        <v>0.2235881630736892</v>
       </c>
       <c r="I178" t="n">
-        <v>0.1132174928077202</v>
+        <v>0.1101978154807816</v>
       </c>
       <c r="J178" t="n">
         <v>0.07679780163893461</v>
@@ -9916,13 +9916,13 @@
         <v>0.2031146364877617</v>
       </c>
       <c r="G179" t="n">
-        <v>0.2166882580334953</v>
+        <v>0.2109088629632579</v>
       </c>
       <c r="H179" t="n">
-        <v>0.208849947698329</v>
+        <v>0.2029656663783189</v>
       </c>
       <c r="I179" t="n">
-        <v>0.07402151928508469</v>
+        <v>0.07204725631610751</v>
       </c>
       <c r="J179" t="n">
         <v>0.06938471940430549</v>
@@ -9969,13 +9969,13 @@
         <v>1.004073844751613</v>
       </c>
       <c r="G180" t="n">
-        <v>0.7870693077728894</v>
+        <v>0.7603811909532979</v>
       </c>
       <c r="H180" t="n">
-        <v>1.041860392242203</v>
+        <v>1.00396179494754</v>
       </c>
       <c r="I180" t="n">
-        <v>0.2227975017285024</v>
+        <v>0.2152428357105014</v>
       </c>
       <c r="J180" t="n">
         <v>0.2842254703014567</v>
@@ -10022,13 +10022,13 @@
         <v>1.960603648539568</v>
       </c>
       <c r="G181" t="n">
-        <v>1.877190165291377</v>
+        <v>1.817581561959463</v>
       </c>
       <c r="H181" t="n">
-        <v>1.967832261531406</v>
+        <v>1.90110657834384</v>
       </c>
       <c r="I181" t="n">
-        <v>0.5270230328945785</v>
+        <v>0.5102878573671066</v>
       </c>
       <c r="J181" t="n">
         <v>0.5504414524764536</v>
